--- a/testcases/timeseries/EVDay01_mix.xlsx
+++ b/testcases/timeseries/EVDay01_mix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalumEdmunds\Desktop\oatsEV_V2G\testcases\timeseries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CalumEdmunds\Desktop\agileFlex\testcases\timeseries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9ED0F6-1A59-421B-89FF-3AB0CDB40D67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD9E5674-6D8C-4BE2-ACF6-8AB26CFF1D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9945" yWindow="2355" windowWidth="7620" windowHeight="10755" tabRatio="691" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +284,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -340,11 +345,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -359,6 +379,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1913,7 +1936,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1925,43 +1948,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>66</v>
       </c>
       <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>486</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7.4</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>250</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.88</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>387</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7.4</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.88</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>369</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.4</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.88</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.4</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.88</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>709</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7.4</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.88</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>287</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7.4</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>250</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.88</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>291</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>7.4</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0.88</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>463</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>7.4</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.88</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>425</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>7.4</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0.88</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>552</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7.4</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>250</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.88</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>628</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.4</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.88</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>7.4</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>250</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.88</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,57 +2461,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8">
+        <v>486</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>28.35286574778733</v>
+      </c>
+      <c r="E2">
+        <v>39.999999460541197</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8">
+        <v>387</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>117</v>
+      </c>
+      <c r="D3">
+        <v>27.157466260541209</v>
+      </c>
+      <c r="E3">
+        <v>39.999999460541197</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8">
+        <v>369</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>33.844274365135298</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>10.758350478244081</v>
+      </c>
+      <c r="E5">
+        <v>23.999999998244061</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8">
+        <v>709</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>118</v>
+      </c>
+      <c r="D6">
+        <v>48.349329583277857</v>
+      </c>
+      <c r="E6">
+        <v>74.999999983277874</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8">
+        <v>287</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>21.69580559446738</v>
+      </c>
+      <c r="E7">
+        <v>29.999999994467359</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8">
+        <v>291</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>24.158095800000002</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8">
+        <v>463</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>30.553174200000001</v>
+      </c>
+      <c r="E9">
+        <v>39.999999460541218</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8">
+        <v>425</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>117</v>
+      </c>
+      <c r="D10">
+        <v>30.793769990541211</v>
+      </c>
+      <c r="E10">
+        <v>39.999999460541218</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8">
+        <v>552</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>44.546312645662397</v>
+      </c>
+      <c r="E11">
+        <v>59.999999995662399</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8">
+        <v>628</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>45.194071995662377</v>
+      </c>
+      <c r="E12">
+        <v>59.999999995662407</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>18.021872408213191</v>
+      </c>
+      <c r="E13">
+        <v>29.999999994467359</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -2102,13 +2749,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2525,7 +3172,7 @@
         <v>53</v>
       </c>
       <c r="C29" s="4">
-        <v>0.16320000000000001</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2540,7 +3187,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="4">
-        <v>0.16320000000000001</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2555,7 +3202,7 @@
         <v>53</v>
       </c>
       <c r="C31" s="4">
-        <v>0.16320000000000001</v>
+        <v>0.28820000000000001</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2570,7 +3217,7 @@
         <v>53</v>
       </c>
       <c r="C32" s="4">
-        <v>0.17509</v>
+        <v>0.30009000000000002</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2585,7 +3232,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="4">
-        <v>0.17509</v>
+        <v>0.30009000000000002</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2600,7 +3247,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="4">
-        <v>0.17509</v>
+        <v>0.30009000000000002</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2615,7 +3262,7 @@
         <v>53</v>
       </c>
       <c r="C35" s="4">
-        <v>0.17499000000000001</v>
+        <v>0.29998999999999998</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2630,7 +3277,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="4">
-        <v>0.17499000000000001</v>
+        <v>0.29998999999999998</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2645,7 +3292,7 @@
         <v>53</v>
       </c>
       <c r="C37" s="4">
-        <v>0.17499000000000001</v>
+        <v>0.29998999999999998</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2660,7 +3307,7 @@
         <v>53</v>
       </c>
       <c r="C38" s="4">
-        <v>0.16772000000000001</v>
+        <v>0.29271999999999998</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2675,7 +3322,7 @@
         <v>53</v>
       </c>
       <c r="C39" s="4">
-        <v>0.16772000000000001</v>
+        <v>0.29271999999999998</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2690,7 +3337,7 @@
         <v>53</v>
       </c>
       <c r="C40" s="4">
-        <v>0.16772000000000001</v>
+        <v>0.29271999999999998</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2705,7 +3352,7 @@
         <v>53</v>
       </c>
       <c r="C41" s="4">
-        <v>0.16381999999999999</v>
+        <v>0.28882000000000002</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2720,7 +3367,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="4">
-        <v>0.16381999999999999</v>
+        <v>0.28882000000000002</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2735,7 +3382,7 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.16381999999999999</v>
+        <v>0.28882000000000002</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2750,7 +3397,7 @@
         <v>53</v>
       </c>
       <c r="C44" s="4">
-        <v>6.4299999999999996E-2</v>
+        <v>0.1893</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2765,7 +3412,7 @@
         <v>53</v>
       </c>
       <c r="C45" s="4">
-        <v>6.4299999999999996E-2</v>
+        <v>0.1893</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -2780,7 +3427,7 @@
         <v>53</v>
       </c>
       <c r="C46" s="4">
-        <v>6.4299999999999996E-2</v>
+        <v>0.1893</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -3875,7 +4522,7 @@
         <v>53</v>
       </c>
       <c r="C119" s="4">
-        <v>4.2130000000000001E-2</v>
+        <v>0.16713</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -3890,7 +4537,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="4">
-        <v>4.2130000000000001E-2</v>
+        <v>0.16713</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -3905,7 +4552,7 @@
         <v>53</v>
       </c>
       <c r="C121" s="4">
-        <v>4.2130000000000001E-2</v>
+        <v>0.16713</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -3920,7 +4567,7 @@
         <v>53</v>
       </c>
       <c r="C122" s="4">
-        <v>4.1950000000000001E-2</v>
+        <v>0.16694999999999999</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -3935,7 +4582,7 @@
         <v>53</v>
       </c>
       <c r="C123" s="4">
-        <v>4.1950000000000001E-2</v>
+        <v>0.16694999999999999</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -3950,7 +4597,7 @@
         <v>53</v>
       </c>
       <c r="C124" s="4">
-        <v>4.1950000000000001E-2</v>
+        <v>0.16694999999999999</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -3965,7 +4612,7 @@
         <v>53</v>
       </c>
       <c r="C125" s="4">
-        <v>4.231E-2</v>
+        <v>0.16730999999999999</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -3980,7 +4627,7 @@
         <v>53</v>
       </c>
       <c r="C126" s="4">
-        <v>4.231E-2</v>
+        <v>0.16730999999999999</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -3995,7 +4642,7 @@
         <v>53</v>
       </c>
       <c r="C127" s="4">
-        <v>4.231E-2</v>
+        <v>0.16730999999999999</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -4010,7 +4657,7 @@
         <v>53</v>
       </c>
       <c r="C128" s="4">
-        <v>5.849E-2</v>
+        <v>0.18348999999999999</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -4025,7 +4672,7 @@
         <v>53</v>
       </c>
       <c r="C129" s="4">
-        <v>5.849E-2</v>
+        <v>0.18348999999999999</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -4040,7 +4687,7 @@
         <v>53</v>
       </c>
       <c r="C130" s="4">
-        <v>5.849E-2</v>
+        <v>0.18348999999999999</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -5193,10 +5840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="5"/>
@@ -5205,1007 +5852,1295 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>11.1162940301107</v>
+      </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>11.1162940301107</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>11.1162940301107</v>
+      </c>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>14.42182704267714</v>
+      </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>14.42182704267714</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>14.42182704267714</v>
+      </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>12.16289380212646</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>12.16289380212646</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>12.16289380212646</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>6.2626318041548501</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>6.2626318041548501</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>6.2626318041548501</v>
+      </c>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>12.85637343947645</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>12.85637343947645</v>
+      </c>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>12.85637343947645</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>13.461441933424609</v>
+      </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>13.461441933424609</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>13.461441933424609</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3">
+        <v>1.738789172279692</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>1.738789172279692</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>1.738789172279692</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>10.36052384959304</v>
+      </c>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>10.36052384959304</v>
+      </c>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>10.36052384959304</v>
+      </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>1.2867001430593921</v>
+      </c>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>1.2867001430593921</v>
+      </c>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>1.2867001430593921</v>
+      </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
       <c r="G47" s="6"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
       <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3">
+        <v>2.087238968286897</v>
+      </c>
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3">
+        <v>2.087238968286897</v>
+      </c>
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <v>2.087238968286897</v>
+      </c>
       <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3">
+        <v>1.498951185120575</v>
+      </c>
       <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3">
+        <v>1.498951185120575</v>
+      </c>
       <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>1.498951185120575</v>
+      </c>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3">
+        <v>2.260681876405112</v>
+      </c>
       <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3">
+        <v>2.260681876405112</v>
+      </c>
       <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3">
+        <v>2.260681876405112</v>
+      </c>
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3">
+        <v>12.517660052632451</v>
+      </c>
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3">
+        <v>12.517660052632451</v>
+      </c>
       <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3">
+        <v>12.517660052632451</v>
+      </c>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3">
+        <v>13.118425056075001</v>
+      </c>
       <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3">
+        <v>13.118425056075001</v>
+      </c>
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3">
+        <v>13.118425056075001</v>
+      </c>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="3">
+        <v>13.08866400187711</v>
+      </c>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="3">
+        <v>13.08866400187711</v>
+      </c>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3">
+        <v>13.08866400187711</v>
+      </c>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3">
+        <v>20.7623701869969</v>
+      </c>
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3">
+        <v>20.7623701869969</v>
+      </c>
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3">
+        <v>20.7623701869969</v>
+      </c>
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3">
+        <v>22.679828391057871</v>
+      </c>
       <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3">
+        <v>22.679828391057871</v>
+      </c>
       <c r="G72" s="6"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3">
+        <v>22.679828391057871</v>
+      </c>
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3">
+        <v>23.663898574829162</v>
+      </c>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3">
+        <v>23.663898574829162</v>
+      </c>
       <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3">
+        <v>23.663898574829162</v>
+      </c>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3">
+        <v>23.66959705212405</v>
+      </c>
       <c r="G77" s="6"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3">
+        <v>23.66959705212405</v>
+      </c>
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3">
+        <v>23.66959705212405</v>
+      </c>
       <c r="G79" s="6"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3">
+        <v>22.84646650267452</v>
+      </c>
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="3">
+        <v>22.84646650267452</v>
+      </c>
       <c r="G81" s="6"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="3">
+        <v>22.84646650267452</v>
+      </c>
       <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="3">
+        <v>25.59025550357233</v>
+      </c>
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="3">
+        <v>25.59025550357233</v>
+      </c>
       <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="3">
+        <v>25.59025550357233</v>
+      </c>
       <c r="G85" s="6"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="3">
+        <v>22.574286847185999</v>
+      </c>
       <c r="G86" s="6"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="3">
+        <v>22.574286847185999</v>
+      </c>
       <c r="G87" s="6"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3">
+        <v>22.574286847185999</v>
+      </c>
       <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="3">
+        <v>21.522444983073239</v>
+      </c>
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="3">
+        <v>21.522444983073239</v>
+      </c>
       <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="3">
+        <v>21.522444983073239</v>
+      </c>
       <c r="G91" s="6"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3">
+        <v>18.185353993587341</v>
+      </c>
       <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3">
+        <v>18.185353993587341</v>
+      </c>
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3">
+        <v>18.185353993587341</v>
+      </c>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3">
+        <v>21.948001373375789</v>
+      </c>
       <c r="G95" s="6"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3">
+        <v>21.948001373375789</v>
+      </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3">
+        <v>21.948001373375789</v>
+      </c>
       <c r="G97" s="6"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3">
+        <v>15.58897159688849</v>
+      </c>
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3">
+        <v>15.58897159688849</v>
+      </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3">
+        <v>15.58897159688849</v>
+      </c>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3">
+        <v>12.831637316891319</v>
+      </c>
       <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="3">
+        <v>12.831637316891319</v>
+      </c>
       <c r="G102" s="6"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3">
+        <v>12.831637316891319</v>
+      </c>
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3">
+        <v>11.72571648304819</v>
+      </c>
       <c r="G104" s="6"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3">
+        <v>11.72571648304819</v>
+      </c>
       <c r="G105" s="6"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3">
+        <v>11.72571648304819</v>
+      </c>
       <c r="G106" s="6"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="3">
+        <v>14.55653999271312</v>
+      </c>
       <c r="G107" s="6"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="3">
+        <v>14.55653999271312</v>
+      </c>
       <c r="G108" s="6"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3">
+        <v>14.55653999271312</v>
+      </c>
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3">
+        <v>11.075134472870349</v>
+      </c>
       <c r="G110" s="6"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="3">
+        <v>11.075134472870349</v>
+      </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3">
+        <v>11.075134472870349</v>
+      </c>
       <c r="G112" s="6"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="3">
+        <v>4.7675073058993904</v>
+      </c>
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3">
+        <v>4.7675073058993904</v>
+      </c>
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="3">
+        <v>4.7675073058993904</v>
+      </c>
       <c r="G115" s="6"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3">
+        <v>0</v>
+      </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="3"/>
+      <c r="B117" s="3">
+        <v>0</v>
+      </c>
       <c r="G117" s="6"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="3"/>
+      <c r="B118" s="3">
+        <v>0</v>
+      </c>
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="3">
+        <v>0</v>
+      </c>
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="3"/>
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="3"/>
+      <c r="B121" s="3">
+        <v>0</v>
+      </c>
       <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="3"/>
+      <c r="B122" s="3">
+        <v>0</v>
+      </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="3">
+        <v>0</v>
+      </c>
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="3">
+        <v>0</v>
+      </c>
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="3"/>
+      <c r="B125" s="3">
+        <v>0</v>
+      </c>
       <c r="G125" s="6"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="3">
+        <v>0</v>
+      </c>
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="3">
+        <v>0</v>
+      </c>
       <c r="G127" s="6"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="3">
+        <v>0</v>
+      </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="3">
+        <v>0</v>
+      </c>
       <c r="G129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="3"/>
+      <c r="B130" s="3">
+        <v>0</v>
+      </c>
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="3">
+        <v>11.728897026273559</v>
+      </c>
       <c r="G131" s="6"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="3"/>
+      <c r="B132" s="3">
+        <v>11.728897026273559</v>
+      </c>
       <c r="G132" s="6"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="3">
+        <v>11.728897026273559</v>
+      </c>
       <c r="G133" s="6"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="3"/>
+      <c r="B134" s="3">
+        <v>11.19258846131935</v>
+      </c>
       <c r="G134" s="6"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="3"/>
+      <c r="B135" s="3">
+        <v>11.19258846131935</v>
+      </c>
       <c r="G135" s="6"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="3"/>
+      <c r="B136" s="3">
+        <v>11.19258846131935</v>
+      </c>
       <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="3">
+        <v>12.573455087823239</v>
+      </c>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="3">
+        <v>12.573455087823239</v>
+      </c>
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3">
+        <v>12.573455087823239</v>
+      </c>
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="3">
+        <v>15.396850541154381</v>
+      </c>
       <c r="G140" s="6"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3">
+        <v>15.396850541154381</v>
+      </c>
       <c r="G141" s="6"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="3"/>
+      <c r="B142" s="3">
+        <v>15.396850541154381</v>
+      </c>
       <c r="G142" s="6"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="3"/>
+      <c r="B143" s="3">
+        <v>14.24371149260811</v>
+      </c>
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="3">
+        <v>14.24371149260811</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="3"/>
+      <c r="B145" s="3">
+        <v>14.24371149260811</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
@@ -6230,10 +7165,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="5"/>
@@ -6242,865 +7177,1153 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <v>-4.1847243996302872</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <v>-4.1847243996302872</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <v>-4.1847243996302872</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3">
+        <v>-4.2891931755899151</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3">
+        <v>-4.2891931755899151</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3">
+        <v>-4.2891931755899151</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3">
+        <v>-4.2794389635596906</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3">
+        <v>-4.2794389635596906</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3">
+        <v>-4.2794389635596906</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3">
+        <v>-7.751250367035631</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3">
+        <v>-7.751250367035631</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3">
+        <v>-7.751250367035631</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="3">
+        <v>-1.3410327769912269</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3">
+        <v>-1.3410327769912269</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3">
+        <v>-1.3410327769912269</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3">
+        <v>-3.328933330986537</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="3">
+        <v>-3.328933330986537</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="3">
+        <v>-3.328933330986537</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="3">
+        <v>-2.670485640146449</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3">
+        <v>-2.670485640146449</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3">
+        <v>-2.670485640146449</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="3"/>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="3"/>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="3"/>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="3"/>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="3"/>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="3"/>
+      <c r="B77" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="3"/>
+      <c r="B78" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="3"/>
+      <c r="B80" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="3"/>
+      <c r="B81" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="3"/>
+      <c r="B83" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="3"/>
+      <c r="B84" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="3"/>
+      <c r="B85" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="3"/>
+      <c r="B86" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="3"/>
+      <c r="B88" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="3"/>
+      <c r="B89" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="3"/>
+      <c r="B91" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="3"/>
+      <c r="B92" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="3"/>
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="3"/>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="3"/>
+      <c r="B95" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="3"/>
+      <c r="B99" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="3"/>
+      <c r="B101" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="3"/>
+      <c r="B102" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="3"/>
+      <c r="B103" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="3"/>
+      <c r="B105" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="3"/>
+      <c r="B106" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="3"/>
+      <c r="B107" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="3"/>
+      <c r="B109" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="3"/>
+      <c r="B110" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="3"/>
+      <c r="B111" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="3"/>
+      <c r="B112" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="3"/>
+      <c r="B114" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="3"/>
+      <c r="B116" s="3">
+        <v>-3.656698723715976</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="3"/>
+      <c r="B117" s="3">
+        <v>-3.656698723715976</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="3"/>
+      <c r="B118" s="3">
+        <v>-3.656698723715976</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="3"/>
+      <c r="B119" s="3">
+        <v>-5.4946856862459477</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="3"/>
+      <c r="B120" s="3">
+        <v>-5.4946856862459477</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="3"/>
+      <c r="B121" s="3">
+        <v>-5.4946856862459477</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="3"/>
+      <c r="B122" s="3">
+        <v>-2.06086985543309</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="3"/>
+      <c r="B123" s="3">
+        <v>-2.06086985543309</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="3">
+        <v>-2.06086985543309</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="3"/>
+      <c r="B125" s="3">
+        <v>-2.4517507082277308</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="3"/>
+      <c r="B126" s="3">
+        <v>-2.4517507082277308</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="3">
+        <v>-2.4517507082277308</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="3">
+        <v>-0.61278094829791385</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="3">
+        <v>-0.61278094829791385</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="3"/>
+      <c r="B130" s="3">
+        <v>-0.61278094829791385</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="3"/>
+      <c r="B132" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="3"/>
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="3"/>
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="3"/>
+      <c r="B136" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="3"/>
+      <c r="B137" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="3"/>
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="3"/>
+      <c r="B140" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="3"/>
+      <c r="B141" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="3"/>
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="3"/>
+      <c r="B143" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="3"/>
+      <c r="B145" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>

--- a/testcases/timeseries/EVDay01_mix.xlsx
+++ b/testcases/timeseries/EVDay01_mix.xlsx
@@ -152,6 +152,74 @@
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1724,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013006696</v>
+        <v>2013005949</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,766 +1901,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2016004115</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>75</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2012004783</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" t="n">
-        <v>250</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2013005335</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
-        <v>250</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2013005061</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="n">
-        <v>250</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2013000519</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="n">
-        <v>250</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2013007382</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2014000505</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2012000425</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2015007491</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2016007085</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2015007694</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>30</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2015004748</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2013000038</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>40</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2015008448</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>30</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2013002371</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2016006327</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2016002347</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2012004484</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2014005942</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>40</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2014000840</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2647,479 +1955,115 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013006696</v>
+        <v>2013005949</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>19.95090056</v>
+        <v>56.4925899832779</v>
       </c>
       <c r="E2" t="n">
-        <v>21.97363865997004</v>
+        <v>58.66325664994456</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013006696</v>
+        <v>2013005949</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>23.83584732</v>
+        <v>58.58793675661122</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2013006696</v>
-      </c>
-      <c r="B4" t="n">
-        <v>68</v>
-      </c>
-      <c r="C4" t="n">
-        <v>143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.96036636</v>
-      </c>
-      <c r="E4" t="n">
-        <v>24</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n">
-        <v>2016004115</v>
-      </c>
-      <c r="B5" t="n">
-        <v>36</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D5" t="n">
-        <v>57.23288638327789</v>
-      </c>
-      <c r="E5" t="n">
-        <v>69.87198126754356</v>
-      </c>
+      <c r="A5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n">
-        <v>2016004115</v>
-      </c>
-      <c r="B6" t="n">
-        <v>56</v>
-      </c>
-      <c r="C6" t="n">
-        <v>110</v>
-      </c>
-      <c r="D6" t="n">
-        <v>74.15026846327787</v>
-      </c>
-      <c r="E6" t="n">
-        <v>75</v>
-      </c>
+      <c r="A6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n">
-        <v>2012004783</v>
-      </c>
-      <c r="B7" t="n">
-        <v>42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>143</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8.946614114467355</v>
-      </c>
-      <c r="E7" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n">
-        <v>2013005335</v>
-      </c>
-      <c r="B8" t="n">
-        <v>38</v>
-      </c>
-      <c r="C8" t="n">
-        <v>109</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.45733332780069</v>
-      </c>
+      <c r="A8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n">
-        <v>2013005061</v>
-      </c>
-      <c r="B9" t="n">
-        <v>28</v>
-      </c>
-      <c r="C9" t="n">
-        <v>116</v>
-      </c>
-      <c r="D9" t="n">
-        <v>46.54591759566242</v>
-      </c>
-      <c r="E9" t="n">
-        <v>60</v>
-      </c>
+      <c r="A9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2013000519</v>
-      </c>
-      <c r="B10" t="n">
-        <v>27</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>28.09893016054119</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37.76687300111035</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2013000519</v>
-      </c>
-      <c r="B11" t="n">
-        <v>44</v>
-      </c>
-      <c r="C11" t="n">
-        <v>143</v>
-      </c>
-      <c r="D11" t="n">
-        <v>37.26412146054118</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2013007382</v>
-      </c>
-      <c r="B12" t="n">
-        <v>42</v>
-      </c>
-      <c r="C12" t="n">
-        <v>114</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.99999999824409</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2014000505</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>114</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51.11644319566238</v>
-      </c>
-      <c r="E13" t="n">
-        <v>60</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2012000425</v>
-      </c>
-      <c r="B14" t="n">
-        <v>40</v>
-      </c>
-      <c r="C14" t="n">
-        <v>108</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36.7169464</v>
-      </c>
-      <c r="E14" t="n">
-        <v>40</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2012000425</v>
-      </c>
-      <c r="B15" t="n">
-        <v>126</v>
-      </c>
-      <c r="C15" t="n">
-        <v>141</v>
-      </c>
-      <c r="D15" t="n">
-        <v>36.7169464</v>
-      </c>
-      <c r="E15" t="n">
-        <v>40</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2015007491</v>
-      </c>
-      <c r="B16" t="n">
-        <v>29</v>
-      </c>
-      <c r="C16" t="n">
-        <v>110</v>
-      </c>
-      <c r="D16" t="n">
-        <v>70.36510078327788</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2016007085</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>110</v>
-      </c>
-      <c r="D17" t="n">
-        <v>27.78554816</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2015007694</v>
-      </c>
-      <c r="B18" t="n">
-        <v>30</v>
-      </c>
-      <c r="C18" t="n">
-        <v>116</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7.412913094467356</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2015004748</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>18.93095947446735</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2015004748</v>
-      </c>
-      <c r="B20" t="n">
-        <v>34</v>
-      </c>
-      <c r="C20" t="n">
-        <v>143</v>
-      </c>
-      <c r="D20" t="n">
-        <v>27.23193519446737</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2013000038</v>
-      </c>
-      <c r="B21" t="n">
-        <v>44</v>
-      </c>
-      <c r="C21" t="n">
-        <v>108</v>
-      </c>
-      <c r="D21" t="n">
-        <v>24.71126946054119</v>
-      </c>
-      <c r="E21" t="n">
-        <v>39.99666275395914</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2015008448</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>104</v>
-      </c>
-      <c r="D22" t="n">
-        <v>28.89277408</v>
-      </c>
-      <c r="E22" t="n">
-        <v>30</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2015008448</v>
-      </c>
-      <c r="B23" t="n">
-        <v>134</v>
-      </c>
-      <c r="C23" t="n">
-        <v>138</v>
-      </c>
-      <c r="D23" t="n">
-        <v>28.89277408</v>
-      </c>
-      <c r="E23" t="n">
-        <v>30</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2013002371</v>
-      </c>
-      <c r="B24" t="n">
-        <v>34</v>
-      </c>
-      <c r="C24" t="n">
-        <v>96</v>
-      </c>
-      <c r="D24" t="n">
-        <v>6.000261173440567</v>
-      </c>
-      <c r="E24" t="n">
-        <v>39.41450492159166</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2016006327</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36</v>
-      </c>
-      <c r="C25" t="n">
-        <v>117</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E25" t="n">
-        <v>29.99999999446736</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2016002347</v>
-      </c>
-      <c r="B26" t="n">
-        <v>38</v>
-      </c>
-      <c r="C26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>35.6225946605412</v>
-      </c>
-      <c r="E26" t="n">
-        <v>40</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2012004484</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>143</v>
-      </c>
-      <c r="D27" t="n">
-        <v>65.02291031408539</v>
-      </c>
-      <c r="E27" t="n">
-        <v>75</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2014005942</v>
-      </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>122</v>
-      </c>
-      <c r="D28" t="n">
-        <v>39.4528244</v>
-      </c>
-      <c r="E28" t="n">
-        <v>40</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2014000840</v>
-      </c>
-      <c r="B29" t="n">
-        <v>29</v>
-      </c>
-      <c r="C29" t="n">
-        <v>120</v>
-      </c>
-      <c r="D29" t="n">
-        <v>37.264122</v>
-      </c>
-      <c r="E29" t="n">
-        <v>40</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3171,7 +2115,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -3188,7 +2132,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -3205,7 +2149,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -3222,7 +2166,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -3239,7 +2183,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -3256,7 +2200,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
@@ -3273,7 +2217,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n"/>
@@ -3290,7 +2234,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
@@ -3307,7 +2251,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -3324,7 +2268,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
@@ -3341,7 +2285,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
@@ -3358,7 +2302,7 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D13" s="4" t="n"/>
       <c r="E13" s="4" t="n"/>
@@ -3375,7 +2319,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
@@ -3392,7 +2336,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
@@ -3409,7 +2353,7 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
@@ -3426,7 +2370,7 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -3443,7 +2387,7 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -3460,7 +2404,7 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -3477,7 +2421,7 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -3494,7 +2438,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -3511,7 +2455,7 @@
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
@@ -3528,7 +2472,7 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
@@ -3545,7 +2489,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -3562,7 +2506,7 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -3579,7 +2523,7 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -3596,7 +2540,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -3613,7 +2557,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -3630,7 +2574,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -3647,7 +2591,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3664,7 +2608,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3681,7 +2625,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -3698,7 +2642,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3715,7 +2659,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3732,7 +2676,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3749,7 +2693,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -3766,7 +2710,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3783,7 +2727,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3800,7 +2744,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3817,7 +2761,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3834,7 +2778,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3851,7 +2795,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3868,7 +2812,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.104</v>
+        <v>0.229</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3885,7 +2829,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3902,7 +2846,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3919,7 +2863,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3936,7 +2880,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3953,7 +2897,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3970,7 +2914,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3987,7 +2931,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -4004,7 +2948,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -4021,7 +2965,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -4038,7 +2982,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -4055,7 +2999,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -4072,7 +3016,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -4089,7 +3033,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -4106,7 +3050,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -4123,7 +3067,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -4140,7 +3084,7 @@
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="4" t="n"/>
@@ -4157,7 +3101,7 @@
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D60" s="4" t="n"/>
       <c r="E60" s="4" t="n"/>
@@ -4174,7 +3118,7 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="4" t="n"/>
@@ -4191,7 +3135,7 @@
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D62" s="4" t="n"/>
       <c r="E62" s="4" t="n"/>
@@ -4888,7 +3832,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D103" s="4" t="n"/>
       <c r="E103" s="4" t="n"/>
@@ -4922,7 +3866,7 @@
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D105" s="4" t="n"/>
       <c r="E105" s="4" t="n"/>
@@ -4939,7 +3883,7 @@
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D106" s="4" t="n"/>
       <c r="E106" s="4" t="n"/>
@@ -4956,7 +3900,7 @@
         </is>
       </c>
       <c r="C107" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D107" s="4" t="n"/>
       <c r="E107" s="4" t="n"/>
@@ -4973,7 +3917,7 @@
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D108" s="4" t="n"/>
       <c r="E108" s="4" t="n"/>
@@ -4990,7 +3934,7 @@
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D109" s="4" t="n"/>
       <c r="E109" s="4" t="n"/>
@@ -5007,7 +3951,7 @@
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D110" s="4" t="n"/>
       <c r="E110" s="4" t="n"/>
@@ -5024,7 +3968,7 @@
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D111" s="4" t="n"/>
       <c r="E111" s="4" t="n"/>
@@ -5041,7 +3985,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -5058,7 +4002,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D113" s="4" t="n"/>
       <c r="E113" s="4" t="n"/>
@@ -5075,7 +4019,7 @@
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D114" s="4" t="n"/>
       <c r="E114" s="4" t="n"/>
@@ -5092,7 +4036,7 @@
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D115" s="4" t="n"/>
       <c r="E115" s="4" t="n"/>
@@ -5109,7 +4053,7 @@
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D116" s="4" t="n"/>
       <c r="E116" s="4" t="n"/>
@@ -5126,7 +4070,7 @@
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D117" s="4" t="n"/>
       <c r="E117" s="4" t="n"/>
@@ -5143,7 +4087,7 @@
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D118" s="4" t="n"/>
       <c r="E118" s="4" t="n"/>
@@ -5160,7 +4104,7 @@
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D119" s="4" t="n"/>
       <c r="E119" s="4" t="n"/>
@@ -5177,7 +4121,7 @@
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D120" s="4" t="n"/>
       <c r="E120" s="4" t="n"/>
@@ -5194,7 +4138,7 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D121" s="4" t="n"/>
       <c r="E121" s="4" t="n"/>
@@ -5211,7 +4155,7 @@
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D122" s="4" t="n"/>
       <c r="E122" s="4" t="n"/>
@@ -5228,7 +4172,7 @@
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D123" s="4" t="n"/>
       <c r="E123" s="4" t="n"/>
@@ -5245,7 +4189,7 @@
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D124" s="4" t="n"/>
       <c r="E124" s="4" t="n"/>
@@ -5262,7 +4206,7 @@
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D125" s="4" t="n"/>
       <c r="E125" s="4" t="n"/>
@@ -5279,7 +4223,7 @@
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D126" s="4" t="n"/>
       <c r="E126" s="4" t="n"/>
@@ -5296,7 +4240,7 @@
         </is>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.008</v>
+        <v>0.133</v>
       </c>
       <c r="D127" s="4" t="n"/>
       <c r="E127" s="4" t="n"/>
@@ -5313,7 +4257,7 @@
         </is>
       </c>
       <c r="C128" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D128" s="4" t="n"/>
       <c r="E128" s="4" t="n"/>
@@ -5330,7 +4274,7 @@
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D129" s="4" t="n"/>
       <c r="E129" s="4" t="n"/>
@@ -5347,7 +4291,7 @@
         </is>
       </c>
       <c r="C130" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D130" s="4" t="n"/>
       <c r="E130" s="4" t="n"/>
@@ -5364,7 +4308,7 @@
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D131" s="4" t="n"/>
       <c r="E131" s="4" t="n"/>
@@ -5381,7 +4325,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D132" s="4" t="n"/>
       <c r="E132" s="4" t="n"/>
@@ -5398,7 +4342,7 @@
         </is>
       </c>
       <c r="C133" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D133" s="4" t="n"/>
       <c r="E133" s="4" t="n"/>
@@ -5415,7 +4359,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D134" s="4" t="n"/>
       <c r="E134" s="4" t="n"/>
@@ -5432,7 +4376,7 @@
         </is>
       </c>
       <c r="C135" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D135" s="4" t="n"/>
       <c r="E135" s="4" t="n"/>
@@ -5449,7 +4393,7 @@
         </is>
       </c>
       <c r="C136" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D136" s="4" t="n"/>
       <c r="E136" s="4" t="n"/>
@@ -5466,7 +4410,7 @@
         </is>
       </c>
       <c r="C137" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D137" s="4" t="n"/>
       <c r="E137" s="4" t="n"/>
@@ -5483,7 +4427,7 @@
         </is>
       </c>
       <c r="C138" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D138" s="4" t="n"/>
       <c r="E138" s="4" t="n"/>
@@ -5500,7 +4444,7 @@
         </is>
       </c>
       <c r="C139" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D139" s="4" t="n"/>
       <c r="E139" s="4" t="n"/>
@@ -5517,7 +4461,7 @@
         </is>
       </c>
       <c r="C140" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D140" s="4" t="n"/>
       <c r="E140" s="4" t="n"/>
@@ -5534,7 +4478,7 @@
         </is>
       </c>
       <c r="C141" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D141" s="4" t="n"/>
       <c r="E141" s="4" t="n"/>
@@ -5551,7 +4495,7 @@
         </is>
       </c>
       <c r="C142" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D142" s="4" t="n"/>
       <c r="E142" s="4" t="n"/>
@@ -5568,7 +4512,7 @@
         </is>
       </c>
       <c r="C143" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D143" s="4" t="n"/>
       <c r="E143" s="4" t="n"/>
@@ -5585,7 +4529,7 @@
         </is>
       </c>
       <c r="C144" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D144" s="4" t="n"/>
       <c r="E144" s="4" t="n"/>
@@ -5602,7 +4546,7 @@
         </is>
       </c>
       <c r="C145" s="4" t="n">
-        <v>0.021</v>
+        <v>0.146</v>
       </c>
       <c r="D145" s="4" t="n"/>
       <c r="E145" s="4" t="n"/>
@@ -6721,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>26.25578878877311</v>
+        <v>0</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6730,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>23.2438482373737</v>
+        <v>0</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6739,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25.17221994193165</v>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6748,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>24.9529440938186</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6757,7 +5701,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>25.45299426286205</v>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6766,7 +5710,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>27.84063292152604</v>
+        <v>0</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6775,7 +5719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>25.80296023792037</v>
+        <v>0</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6784,7 +5728,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>26.62896851500653</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6793,7 +5737,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>27.19827494758978</v>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6802,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>26.26296022404916</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6811,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>24.62879022097489</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6820,7 +5764,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>23.05708900437284</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6829,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>26.15013344304838</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6838,7 +5782,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>26.04938921656496</v>
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6847,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>24.96693912877451</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6856,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>24.15800147152468</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6865,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>26.27698966140218</v>
+        <v>0</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6874,7 +5818,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>24.47627229718942</v>
+        <v>0</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6883,7 +5827,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>25.58988208177482</v>
+        <v>0</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6892,7 +5836,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>23.46616046741862</v>
+        <v>0</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6901,7 +5845,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>22.23714266765449</v>
+        <v>0</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6910,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>24.40588933178437</v>
+        <v>0</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6919,7 +5863,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>25.85853986772417</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6928,7 +5872,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>21.64084047052895</v>
+        <v>0</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6937,7 +5881,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>19.02850188554639</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6946,7 +5890,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>18.6447884510043</v>
+        <v>0</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6955,7 +5899,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>19.39461804347572</v>
+        <v>0</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6964,7 +5908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>20.74329277240666</v>
+        <v>0</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6973,7 +5917,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>21.94462151114844</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6982,7 +5926,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>23.32732895547934</v>
+        <v>0</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6991,7 +5935,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>22.47698349659389</v>
+        <v>0</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7000,7 +5944,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>21.52247696624478</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -7009,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>21.14897762512917</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -7018,7 +5962,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>23.89719287216223</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -7027,7 +5971,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>21.19228905019342</v>
+        <v>0</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -7036,7 +5980,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>20.97536337208655</v>
+        <v>0</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -7045,7 +5989,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>21.39521679439532</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7054,7 +5998,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>20.7042941271959</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7063,7 +6007,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>22.53955345676819</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7072,7 +6016,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>20.73196437423507</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7081,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>19.79450864194376</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7090,7 +6034,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>20.16411989399284</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7099,7 +6043,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>21.19237419026878</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7108,7 +6052,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>22.05785098838329</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7117,7 +6061,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>21.91931168475964</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7126,7 +6070,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>21.02269954359708</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7135,7 +6079,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>22.77166957562567</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7144,7 +6088,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>23.47650707459772</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7153,7 +6097,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>23.55828805273742</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7162,7 +6106,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>22.62704734203101</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7171,7 +6115,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>23.650136623853</v>
+        <v>0</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7180,7 +6124,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>23.84149014222714</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7189,7 +6133,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>23.62281562695535</v>
+        <v>0</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7198,7 +6142,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>23.58638376793055</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7207,7 +6151,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>23.55367390188024</v>
+        <v>0</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7216,7 +6160,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>23.53307440959272</v>
+        <v>0</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7225,7 +6169,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>23.23510671813543</v>
+        <v>0</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7234,7 +6178,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>23.40506440377388</v>
+        <v>0</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7243,7 +6187,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>24.02702217791317</v>
+        <v>0</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7252,7 +6196,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>25.09622406969932</v>
+        <v>0</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7261,7 +6205,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>25.15707781535036</v>
+        <v>0</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7270,7 +6214,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>27.73171253937771</v>
+        <v>0.6220140416738517</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7279,7 +6223,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>28.75551293299155</v>
+        <v>1.367087178740908</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7288,7 +6232,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>28.7591706003206</v>
+        <v>1.193861149237085</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7297,7 +6241,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>29.29156782329675</v>
+        <v>1.757079270324938</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7306,7 +6250,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>30.65894097297664</v>
+        <v>1.1090991038328</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7315,7 +6259,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>32.99754075148758</v>
+        <v>1.88469700447381</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7324,7 +6268,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>31.74354193040048</v>
+        <v>0.8465283762854706</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7333,7 +6277,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>31.21677596834837</v>
+        <v>0.9718385812180994</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7342,7 +6286,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>31.52961799476896</v>
+        <v>2.273145885301996</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7351,7 +6295,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>29.45230837354488</v>
+        <v>3.469686573161091</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7360,7 +6304,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>30.23089344035955</v>
+        <v>5.007256053957192</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7369,7 +6313,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>31.36247078539994</v>
+        <v>5.554669221714509</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7378,7 +6322,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>32.03189811291931</v>
+        <v>4.583488270221092</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7387,7 +6331,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>31.6538276299888</v>
+        <v>6.632819433207585</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7396,7 +6340,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>31.58750875975542</v>
+        <v>7.190144480759019</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7405,7 +6349,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>30.85766456168765</v>
+        <v>8.397042797511421</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7414,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>32.223423479545</v>
+        <v>7.929622863992886</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7423,7 +6367,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>31.45795319091642</v>
+        <v>7.753135763721341</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7432,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>30.35210274451013</v>
+        <v>8.346574624837697</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7441,7 +6385,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>31.49553914135414</v>
+        <v>7.048738771416679</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7450,7 +6394,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>31.65640780285527</v>
+        <v>6.364431744914569</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7459,7 +6403,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>30.65559991461668</v>
+        <v>7.091517488464661</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7468,7 +6412,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>30.35240668162946</v>
+        <v>4.97632286327486</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7477,7 +6421,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>31.72413149176954</v>
+        <v>5.147217031018772</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7486,7 +6430,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>31.82008897092406</v>
+        <v>6.182371593220082</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7495,7 +6439,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>32.24102415769583</v>
+        <v>6.000242902589539</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7504,7 +6448,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>30.5095703421229</v>
+        <v>6.658650667462931</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7513,7 +6457,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>31.7241443839476</v>
+        <v>5.601597515792021</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7522,7 +6466,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>31.06030423127798</v>
+        <v>4.636558262968334</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7531,7 +6475,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>32.69897939151456</v>
+        <v>2.963549759519128</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7540,7 +6484,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>34.18130415194649</v>
+        <v>1.64574138032337</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7549,7 +6493,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>32.48804249867607</v>
+        <v>2.845335988441783</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7558,7 +6502,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>30.69707718448559</v>
+        <v>3.583061080829889</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7567,7 +6511,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>32.34689965682113</v>
+        <v>4.432151258023111</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7576,7 +6520,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>31.83481605809886</v>
+        <v>0.6380101808104544</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7585,7 +6529,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>30.91044494166545</v>
+        <v>2.687540789950706</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7594,7 +6538,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>29.47210349306326</v>
+        <v>2.809490657976728</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7603,7 +6547,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>28.78311285865776</v>
+        <v>4.166368445478819</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7612,7 +6556,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>28.80819553336678</v>
+        <v>4.823044142336061</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7621,7 +6565,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>29.27245208564921</v>
+        <v>1.713029028568332</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7630,7 +6574,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>25.08041892636558</v>
+        <v>0</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7639,7 +6583,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>24.91881792453736</v>
+        <v>0.1789955078082415</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7648,7 +6592,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>26.39208413643118</v>
+        <v>0</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7657,7 +6601,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>26.1889804366932</v>
+        <v>0</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7666,7 +6610,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>28.51956509866206</v>
+        <v>0</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7675,7 +6619,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>29.80738306800611</v>
+        <v>0</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7684,7 +6628,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>30.85162448337703</v>
+        <v>0</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7693,7 +6637,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>29.79714462958145</v>
+        <v>0</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7702,7 +6646,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>30.1460428783816</v>
+        <v>0</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7711,7 +6655,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>28.4172591737616</v>
+        <v>0</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7720,7 +6664,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>28.22682291517549</v>
+        <v>0</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7729,7 +6673,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>29.29691456362182</v>
+        <v>0</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7738,7 +6682,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>26.39155160177514</v>
+        <v>0</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7747,7 +6691,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>26.99562307806407</v>
+        <v>0</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7756,7 +6700,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>25.22785938555861</v>
+        <v>0</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7765,7 +6709,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>25.60744636054662</v>
+        <v>0</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7774,7 +6718,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>25.64656198099963</v>
+        <v>0</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7783,7 +6727,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>24.17722020715774</v>
+        <v>0</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7792,7 +6736,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>24.7533439857542</v>
+        <v>0</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7801,7 +6745,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>25.14003598031204</v>
+        <v>0</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7810,7 +6754,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>23.87484399477163</v>
+        <v>0</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7819,7 +6763,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>24.78123922168552</v>
+        <v>0</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7828,7 +6772,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>23.68454657620375</v>
+        <v>0</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7837,7 +6781,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>23.56101697633596</v>
+        <v>0</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7846,7 +6790,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>24.31514678477332</v>
+        <v>0</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7855,7 +6799,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>24.12692792186294</v>
+        <v>0</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7864,7 +6808,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>23.85149517992093</v>
+        <v>0</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7873,7 +6817,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>24.6705435638626</v>
+        <v>0</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7882,7 +6826,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>26.24804271694371</v>
+        <v>0</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7891,7 +6835,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>24.88507231644354</v>
+        <v>0</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7900,7 +6844,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>25.20577272866283</v>
+        <v>0</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7909,7 +6853,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>25.24082017725086</v>
+        <v>0</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7918,7 +6862,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>27.12090057140659</v>
+        <v>0</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7927,7 +6871,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>28.18929864035164</v>
+        <v>0</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7936,7 +6880,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>28.44412062594626</v>
+        <v>0</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7945,7 +6889,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>29.41298748259018</v>
+        <v>0</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7954,7 +6898,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>26.89018397482039</v>
+        <v>0</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7963,7 +6907,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>26.03855156268021</v>
+        <v>0</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7972,7 +6916,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>23.90897032370446</v>
+        <v>0</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7981,7 +6925,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>25.32747181457036</v>
+        <v>0</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7990,7 +6934,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>26.36014237056101</v>
+        <v>0</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7999,7 +6943,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>25.20765870147079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8007,7 +6951,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>28.7280003482737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -8054,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0</v>
+        <v>-3.822914260402912</v>
       </c>
     </row>
     <row r="3">
@@ -8062,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0</v>
+        <v>-4.914184491880216</v>
       </c>
     </row>
     <row r="4">
@@ -8070,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0</v>
+        <v>-5.695355170497582</v>
       </c>
     </row>
     <row r="5">
@@ -8078,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>-6.095420146805484</v>
       </c>
     </row>
     <row r="6">
@@ -8086,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>-5.764745342894806</v>
       </c>
     </row>
     <row r="7">
@@ -8094,7 +7038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>-3.382441715794333</v>
       </c>
     </row>
     <row r="8">
@@ -8102,7 +7046,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0</v>
+        <v>-5.99008505634448</v>
       </c>
     </row>
     <row r="9">
@@ -8110,7 +7054,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>-5.114040886767858</v>
       </c>
     </row>
     <row r="10">
@@ -8118,7 +7062,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>-6.553135865865117</v>
       </c>
     </row>
     <row r="11">
@@ -8126,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>-4.265993897624466</v>
       </c>
     </row>
     <row r="12">
@@ -8134,7 +7078,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>-4.236648427103548</v>
       </c>
     </row>
     <row r="13">
@@ -8142,7 +7086,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0</v>
+        <v>-8.935655155868034</v>
       </c>
     </row>
     <row r="14">
@@ -8150,7 +7094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>-5.686650615394406</v>
       </c>
     </row>
     <row r="15">
@@ -8158,7 +7102,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>-5.743949857837823</v>
       </c>
     </row>
     <row r="16">
@@ -8166,7 +7110,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>-5.601520988538028</v>
       </c>
     </row>
     <row r="17">
@@ -8174,7 +7118,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>-4.183433055510753</v>
       </c>
     </row>
     <row r="18">
@@ -8182,7 +7126,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>-6.161099007445977</v>
       </c>
     </row>
     <row r="19">
@@ -8190,7 +7134,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>-5.503894205004813</v>
       </c>
     </row>
     <row r="20">
@@ -8198,7 +7142,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>-5.103308634283671</v>
       </c>
     </row>
     <row r="21">
@@ -8206,7 +7150,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>-4.99612770029274</v>
       </c>
     </row>
     <row r="22">
@@ -8214,7 +7158,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>-5.44278182429095</v>
       </c>
     </row>
     <row r="23">
@@ -8222,7 +7166,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>-5.738833391865414</v>
       </c>
     </row>
     <row r="24">
@@ -8230,7 +7174,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>-5.102134385577954</v>
       </c>
     </row>
     <row r="25">
@@ -8238,7 +7182,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>-9.981702129705161</v>
       </c>
     </row>
     <row r="26">
@@ -8246,7 +7190,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>-8.037933111419605</v>
       </c>
     </row>
     <row r="27">
@@ -8254,7 +7198,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>-10.5034523607902</v>
       </c>
     </row>
     <row r="28">
@@ -8262,7 +7206,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>-9.81175483118091</v>
       </c>
     </row>
     <row r="29">
@@ -8270,7 +7214,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>-10.22621432302709</v>
       </c>
     </row>
     <row r="30">
@@ -8278,7 +7222,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>-15.22249934625663</v>
       </c>
     </row>
     <row r="31">
@@ -8286,7 +7230,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>-12.46301220467041</v>
       </c>
     </row>
     <row r="32">
@@ -8294,7 +7238,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>-12.12944205267969</v>
       </c>
     </row>
     <row r="33">
@@ -8302,7 +7246,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>-13.16878766716082</v>
       </c>
     </row>
     <row r="34">
@@ -8310,7 +7254,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>-14.35582555677901</v>
       </c>
     </row>
     <row r="35">
@@ -8318,7 +7262,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>-13.69561395613554</v>
       </c>
     </row>
     <row r="36">
@@ -8326,7 +7270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>-11.66433962222764</v>
       </c>
     </row>
     <row r="37">
@@ -8334,7 +7278,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>-10.09504577978115</v>
       </c>
     </row>
     <row r="38">
@@ -8342,7 +7286,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>-13.44979613496821</v>
       </c>
     </row>
     <row r="39">
@@ -8350,7 +7294,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>-11.74977294832241</v>
       </c>
     </row>
     <row r="40">
@@ -8358,7 +7302,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>-13.71947446003783</v>
       </c>
     </row>
     <row r="41">
@@ -8366,7 +7310,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>-12.45769669269766</v>
       </c>
     </row>
     <row r="42">
@@ -8374,7 +7318,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>-11.91770658987784</v>
       </c>
     </row>
     <row r="43">
@@ -8382,7 +7326,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>-12.23559593142649</v>
       </c>
     </row>
     <row r="44">
@@ -8390,7 +7334,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>-12.24687500027394</v>
       </c>
     </row>
     <row r="45">
@@ -8398,7 +7342,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>-14.57340992808159</v>
       </c>
     </row>
     <row r="46">
@@ -8406,7 +7350,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>-11.43102193188398</v>
       </c>
     </row>
     <row r="47">
@@ -8414,7 +7358,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>-10.92451401498441</v>
       </c>
     </row>
     <row r="48">
@@ -8422,7 +7366,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>-9.315532514365643</v>
       </c>
     </row>
     <row r="49">
@@ -8430,7 +7374,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>-9.822150971502248</v>
       </c>
     </row>
     <row r="50">
@@ -8438,7 +7382,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>-12.11218331581947</v>
       </c>
     </row>
     <row r="51">
@@ -8446,7 +7390,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>-9.126654508505847</v>
       </c>
     </row>
     <row r="52">
@@ -8454,7 +7398,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>-7.065550690643716</v>
       </c>
     </row>
     <row r="53">
@@ -8462,7 +7406,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>-9.435868052345825</v>
       </c>
     </row>
     <row r="54">
@@ -8470,7 +7414,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>-6.80262471887347</v>
       </c>
     </row>
     <row r="55">
@@ -8478,7 +7422,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>-5.857797157024056</v>
       </c>
     </row>
     <row r="56">
@@ -8486,7 +7430,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>-6.426910432612052</v>
       </c>
     </row>
     <row r="57">
@@ -8494,7 +7438,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>-6.290457162550269</v>
       </c>
     </row>
     <row r="58">
@@ -8502,7 +7446,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>-7.542359752053842</v>
       </c>
     </row>
     <row r="59">
@@ -8510,7 +7454,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>-6.59822355660868</v>
       </c>
     </row>
     <row r="60">
@@ -8518,7 +7462,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>-4.14777885029955</v>
       </c>
     </row>
     <row r="61">
@@ -8526,7 +7470,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>-1.153412304971183</v>
       </c>
     </row>
     <row r="62">
@@ -8534,7 +7478,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>-1.021310988492016</v>
       </c>
     </row>
     <row r="63">
@@ -8862,7 +7806,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0</v>
+        <v>-0.02805940132949319</v>
       </c>
     </row>
     <row r="104">
@@ -8878,7 +7822,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>0</v>
+        <v>-0.7000001076102011</v>
       </c>
     </row>
     <row r="106">
@@ -8886,7 +7830,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>0</v>
+        <v>-0.577354893843643</v>
       </c>
     </row>
     <row r="107">
@@ -8894,7 +7838,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>0</v>
+        <v>-0.7784125442394061</v>
       </c>
     </row>
     <row r="108">
@@ -8902,7 +7846,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>0</v>
+        <v>-3.607366803455249</v>
       </c>
     </row>
     <row r="109">
@@ -8910,7 +7854,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0</v>
+        <v>-7.542716716158539</v>
       </c>
     </row>
     <row r="110">
@@ -8918,7 +7862,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>0</v>
+        <v>-8.391527540381158</v>
       </c>
     </row>
     <row r="111">
@@ -8926,7 +7870,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0</v>
+        <v>-11.51499225805164</v>
       </c>
     </row>
     <row r="112">
@@ -8934,7 +7878,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0</v>
+        <v>-11.7645672106552</v>
       </c>
     </row>
     <row r="113">
@@ -8942,7 +7886,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0</v>
+        <v>-14.5877612092813</v>
       </c>
     </row>
     <row r="114">
@@ -8950,7 +7894,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>0</v>
+        <v>-16.51449693485344</v>
       </c>
     </row>
     <row r="115">
@@ -8958,7 +7902,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>0</v>
+        <v>-16.40839605642018</v>
       </c>
     </row>
     <row r="116">
@@ -8966,7 +7910,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0</v>
+        <v>-15.97879517411455</v>
       </c>
     </row>
     <row r="117">
@@ -8974,7 +7918,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0</v>
+        <v>-15.22291222769497</v>
       </c>
     </row>
     <row r="118">
@@ -8982,7 +7926,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0</v>
+        <v>-12.04336811134343</v>
       </c>
     </row>
     <row r="119">
@@ -8990,7 +7934,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>0</v>
+        <v>-12.58329380916634</v>
       </c>
     </row>
     <row r="120">
@@ -8998,7 +7942,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>0</v>
+        <v>-10.21385099489444</v>
       </c>
     </row>
     <row r="121">
@@ -9006,7 +7950,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0</v>
+        <v>-9.22363372923304</v>
       </c>
     </row>
     <row r="122">
@@ -9014,7 +7958,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0</v>
+        <v>-8.248365692241215</v>
       </c>
     </row>
     <row r="123">
@@ -9022,7 +7966,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0</v>
+        <v>-9.294871463991838</v>
       </c>
     </row>
     <row r="124">
@@ -9030,7 +7974,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0</v>
+        <v>-9.116138656159503</v>
       </c>
     </row>
     <row r="125">
@@ -9038,7 +7982,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0</v>
+        <v>-10.85476415920903</v>
       </c>
     </row>
     <row r="126">
@@ -9046,7 +7990,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>0</v>
+        <v>-12.20056166052796</v>
       </c>
     </row>
     <row r="127">
@@ -9054,7 +7998,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0</v>
+        <v>-11.15817149495516</v>
       </c>
     </row>
     <row r="128">
@@ -9062,7 +8006,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>0</v>
+        <v>-11.11185007068974</v>
       </c>
     </row>
     <row r="129">
@@ -9070,7 +8014,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0</v>
+        <v>-9.317696109300311</v>
       </c>
     </row>
     <row r="130">
@@ -9078,7 +8022,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>0</v>
+        <v>-6.504861861909115</v>
       </c>
     </row>
     <row r="131">
@@ -9086,7 +8030,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>0</v>
+        <v>-7.46029047825974</v>
       </c>
     </row>
     <row r="132">
@@ -9094,7 +8038,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>0</v>
+        <v>-7.131206774466499</v>
       </c>
     </row>
     <row r="133">
@@ -9102,7 +8046,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0</v>
+        <v>-7.76533042053019</v>
       </c>
     </row>
     <row r="134">
@@ -9110,7 +8054,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0</v>
+        <v>-8.442595680281006</v>
       </c>
     </row>
     <row r="135">
@@ -9118,7 +8062,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>0</v>
+        <v>-8.738202185385312</v>
       </c>
     </row>
     <row r="136">
@@ -9126,7 +8070,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>0</v>
+        <v>-10.80042537751982</v>
       </c>
     </row>
     <row r="137">
@@ -9134,7 +8078,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>0</v>
+        <v>-6.782921441575896</v>
       </c>
     </row>
     <row r="138">
@@ -9142,7 +8086,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0</v>
+        <v>-6.95247587565143</v>
       </c>
     </row>
     <row r="139">
@@ -9150,7 +8094,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>0</v>
+        <v>-6.320395921692111</v>
       </c>
     </row>
     <row r="140">
@@ -9158,7 +8102,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>0</v>
+        <v>-4.416167295816686</v>
       </c>
     </row>
     <row r="141">
@@ -9166,7 +8110,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>0</v>
+        <v>-5.487292127503843</v>
       </c>
     </row>
     <row r="142">
@@ -9174,7 +8118,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>0</v>
+        <v>-7.796657200538545</v>
       </c>
     </row>
     <row r="143">
@@ -9182,7 +8126,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>0</v>
+        <v>-8.073481569632794</v>
       </c>
     </row>
     <row r="144">
@@ -9190,7 +8134,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0</v>
+        <v>-5.130465266562337</v>
       </c>
     </row>
     <row r="145">
@@ -9198,7 +8142,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>0</v>
+        <v>-6.33608073675973</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix.xlsx
+++ b/testcases/timeseries/EVDay01_mix.xlsx
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013005949</v>
+        <v>2015007744</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1901,6 +1901,766 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2015009293</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2013003025</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014008866</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2016008968</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2012007199</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2012008256</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2016007315</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2016008881</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012008883</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2014006895</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>30</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2015006846</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2012008887</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2012006296</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2014000408</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2013006763</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2015000330</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014008011</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2013006416</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>75</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2015007868</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>24</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2015002878</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1915,7 +2675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -1955,115 +2715,496 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013005949</v>
+        <v>2015007744</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>56.4925899832779</v>
+        <v>48.3161916</v>
       </c>
       <c r="E2" t="n">
-        <v>58.66325664994456</v>
+        <v>59.56372428126436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013005949</v>
+        <v>2015007744</v>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
+        <v>104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.10539720000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2015009293</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.298518</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2015009293</v>
+      </c>
+      <c r="B5" t="n">
+        <v>120</v>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.5582216</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2013003025</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.6320604605412</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2013003025</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
         <v>116</v>
       </c>
-      <c r="D3" t="n">
-        <v>58.58793675661122</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D7" t="n">
+        <v>39.4528244</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2014008866</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59.2597035956624</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>2014008866</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.25970359999999</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2014008866</v>
+      </c>
+      <c r="B10" t="n">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>118</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58.8895554</v>
+      </c>
+      <c r="E10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>2016008968</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112</v>
+      </c>
+      <c r="D11" t="n">
+        <v>72.68255038327787</v>
+      </c>
+      <c r="E11" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-    </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2012007199</v>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>110</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.90564879824407</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>2012008256</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>143</v>
+      </c>
+      <c r="D13" t="n">
+        <v>19.07541959824407</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23.99999999824405</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2016007315</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>116</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21.29829861446735</v>
+      </c>
+      <c r="E14" t="n">
+        <v>29.99999999446736</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>2016008881</v>
+      </c>
+      <c r="B15" t="n">
+        <v>38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>108</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.69580559446736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.45733332780069</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="7" t="n">
+        <v>2012008883</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>109</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.65295327446736</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="A17" s="7" t="n">
+        <v>2014006895</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37</v>
+      </c>
+      <c r="C17" t="n">
+        <v>118</v>
+      </c>
+      <c r="D17" t="n">
+        <v>29.44638703446736</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="7" t="n">
+        <v>2015006846</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.675</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
+      <c r="A19" s="7" t="n">
+        <v>2012008887</v>
+      </c>
+      <c r="B19" t="n">
+        <v>110</v>
+      </c>
+      <c r="C19" t="n">
+        <v>114</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.44638704</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="7" t="n">
+        <v>2012006296</v>
+      </c>
+      <c r="B20" t="n">
+        <v>34</v>
+      </c>
+      <c r="C20" t="n">
+        <v>36</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.01603511446736</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.18670178113403</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
+      <c r="A21" s="7" t="n">
+        <v>2012006296</v>
+      </c>
+      <c r="B21" t="n">
+        <v>46</v>
+      </c>
+      <c r="C21" t="n">
+        <v>120</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.43413052113403</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.45733332780069</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="7" t="n">
+        <v>2014000408</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" t="n">
+        <v>60</v>
+      </c>
+      <c r="D22" t="n">
+        <v>71.13758398327788</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
+      <c r="A23" s="7" t="n">
+        <v>2014000408</v>
+      </c>
+      <c r="B23" t="n">
+        <v>63</v>
+      </c>
+      <c r="C23" t="n">
+        <v>116</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73.45503360000002</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n"/>
+      <c r="A24" s="7" t="n">
+        <v>2013006763</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>54</v>
+      </c>
+      <c r="D24" t="n">
+        <v>58.5194071956624</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
+      <c r="A25" s="7" t="n">
+        <v>2013006763</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57</v>
+      </c>
+      <c r="C25" t="n">
+        <v>114</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57.7791108</v>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
+      <c r="A26" s="7" t="n">
+        <v>2015000330</v>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>88</v>
+      </c>
+      <c r="D26" t="n">
+        <v>33.2970989</v>
+      </c>
+      <c r="E26" t="n">
+        <v>39.65296224495452</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n"/>
+      <c r="A27" s="7" t="n">
+        <v>2014008011</v>
+      </c>
+      <c r="B27" t="n">
+        <v>35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>122</v>
+      </c>
+      <c r="D27" t="n">
+        <v>56.66866619566242</v>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n"/>
+      <c r="A28" s="7" t="n">
+        <v>2013006416</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>120</v>
+      </c>
+      <c r="D28" t="n">
+        <v>68.94888158327787</v>
+      </c>
+      <c r="E28" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="A29" s="7" t="n">
+        <v>2015007868</v>
+      </c>
+      <c r="B29" t="n">
+        <v>26</v>
+      </c>
+      <c r="C29" t="n">
+        <v>117</v>
+      </c>
+      <c r="D29" t="n">
+        <v>21.81129759824407</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2015002878</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88</v>
+      </c>
+      <c r="D30" t="n">
+        <v>17.65002716024406</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2115,7 +3256,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -2132,7 +3273,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -2149,7 +3290,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -2166,7 +3307,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -2183,7 +3324,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -2200,7 +3341,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
@@ -2217,7 +3358,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n"/>
@@ -2234,7 +3375,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
@@ -2251,7 +3392,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -2268,7 +3409,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
@@ -2285,7 +3426,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
@@ -2302,7 +3443,7 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D13" s="4" t="n"/>
       <c r="E13" s="4" t="n"/>
@@ -2319,7 +3460,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
@@ -2336,7 +3477,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
@@ -2353,7 +3494,7 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
@@ -2370,7 +3511,7 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -2387,7 +3528,7 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -2404,7 +3545,7 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -2421,7 +3562,7 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -2438,7 +3579,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -2455,7 +3596,7 @@
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
@@ -2472,7 +3613,7 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
@@ -2489,7 +3630,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -2506,7 +3647,7 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -2523,7 +3664,7 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -2540,7 +3681,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -2557,7 +3698,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -2574,7 +3715,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -2591,7 +3732,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -2608,7 +3749,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -2625,7 +3766,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -2642,7 +3783,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -2659,7 +3800,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -2676,7 +3817,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2693,7 +3834,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -2710,7 +3851,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -2727,7 +3868,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -2744,7 +3885,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2761,7 +3902,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2778,7 +3919,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -2795,7 +3936,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -2812,7 +3953,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.229</v>
+        <v>0.104</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -2829,7 +3970,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -2846,7 +3987,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -2863,7 +4004,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -2880,7 +4021,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -2897,7 +4038,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -2914,7 +4055,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -2931,7 +4072,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -2948,7 +4089,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -2965,7 +4106,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -2982,7 +4123,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -2999,7 +4140,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -3016,7 +4157,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3033,7 +4174,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3050,7 +4191,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -3067,7 +4208,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -3084,7 +4225,7 @@
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="4" t="n"/>
@@ -3101,7 +4242,7 @@
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D60" s="4" t="n"/>
       <c r="E60" s="4" t="n"/>
@@ -3118,7 +4259,7 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="4" t="n"/>
@@ -3135,7 +4276,7 @@
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D62" s="4" t="n"/>
       <c r="E62" s="4" t="n"/>
@@ -3832,7 +4973,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D103" s="4" t="n"/>
       <c r="E103" s="4" t="n"/>
@@ -3866,7 +5007,7 @@
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D105" s="4" t="n"/>
       <c r="E105" s="4" t="n"/>
@@ -3883,7 +5024,7 @@
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D106" s="4" t="n"/>
       <c r="E106" s="4" t="n"/>
@@ -3900,7 +5041,7 @@
         </is>
       </c>
       <c r="C107" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D107" s="4" t="n"/>
       <c r="E107" s="4" t="n"/>
@@ -3917,7 +5058,7 @@
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D108" s="4" t="n"/>
       <c r="E108" s="4" t="n"/>
@@ -3934,7 +5075,7 @@
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D109" s="4" t="n"/>
       <c r="E109" s="4" t="n"/>
@@ -3951,7 +5092,7 @@
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D110" s="4" t="n"/>
       <c r="E110" s="4" t="n"/>
@@ -3968,7 +5109,7 @@
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D111" s="4" t="n"/>
       <c r="E111" s="4" t="n"/>
@@ -3985,7 +5126,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -4002,7 +5143,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D113" s="4" t="n"/>
       <c r="E113" s="4" t="n"/>
@@ -4019,7 +5160,7 @@
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D114" s="4" t="n"/>
       <c r="E114" s="4" t="n"/>
@@ -4036,7 +5177,7 @@
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D115" s="4" t="n"/>
       <c r="E115" s="4" t="n"/>
@@ -4053,7 +5194,7 @@
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D116" s="4" t="n"/>
       <c r="E116" s="4" t="n"/>
@@ -4070,7 +5211,7 @@
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D117" s="4" t="n"/>
       <c r="E117" s="4" t="n"/>
@@ -4087,7 +5228,7 @@
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D118" s="4" t="n"/>
       <c r="E118" s="4" t="n"/>
@@ -4104,7 +5245,7 @@
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D119" s="4" t="n"/>
       <c r="E119" s="4" t="n"/>
@@ -4121,7 +5262,7 @@
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D120" s="4" t="n"/>
       <c r="E120" s="4" t="n"/>
@@ -4138,7 +5279,7 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D121" s="4" t="n"/>
       <c r="E121" s="4" t="n"/>
@@ -4155,7 +5296,7 @@
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D122" s="4" t="n"/>
       <c r="E122" s="4" t="n"/>
@@ -4172,7 +5313,7 @@
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D123" s="4" t="n"/>
       <c r="E123" s="4" t="n"/>
@@ -4189,7 +5330,7 @@
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D124" s="4" t="n"/>
       <c r="E124" s="4" t="n"/>
@@ -4206,7 +5347,7 @@
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D125" s="4" t="n"/>
       <c r="E125" s="4" t="n"/>
@@ -4223,7 +5364,7 @@
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D126" s="4" t="n"/>
       <c r="E126" s="4" t="n"/>
@@ -4240,7 +5381,7 @@
         </is>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.133</v>
+        <v>0.008</v>
       </c>
       <c r="D127" s="4" t="n"/>
       <c r="E127" s="4" t="n"/>
@@ -4257,7 +5398,7 @@
         </is>
       </c>
       <c r="C128" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D128" s="4" t="n"/>
       <c r="E128" s="4" t="n"/>
@@ -4274,7 +5415,7 @@
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D129" s="4" t="n"/>
       <c r="E129" s="4" t="n"/>
@@ -4291,7 +5432,7 @@
         </is>
       </c>
       <c r="C130" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D130" s="4" t="n"/>
       <c r="E130" s="4" t="n"/>
@@ -4308,7 +5449,7 @@
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D131" s="4" t="n"/>
       <c r="E131" s="4" t="n"/>
@@ -4325,7 +5466,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D132" s="4" t="n"/>
       <c r="E132" s="4" t="n"/>
@@ -4342,7 +5483,7 @@
         </is>
       </c>
       <c r="C133" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D133" s="4" t="n"/>
       <c r="E133" s="4" t="n"/>
@@ -4359,7 +5500,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D134" s="4" t="n"/>
       <c r="E134" s="4" t="n"/>
@@ -4376,7 +5517,7 @@
         </is>
       </c>
       <c r="C135" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D135" s="4" t="n"/>
       <c r="E135" s="4" t="n"/>
@@ -4393,7 +5534,7 @@
         </is>
       </c>
       <c r="C136" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D136" s="4" t="n"/>
       <c r="E136" s="4" t="n"/>
@@ -4410,7 +5551,7 @@
         </is>
       </c>
       <c r="C137" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D137" s="4" t="n"/>
       <c r="E137" s="4" t="n"/>
@@ -4427,7 +5568,7 @@
         </is>
       </c>
       <c r="C138" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D138" s="4" t="n"/>
       <c r="E138" s="4" t="n"/>
@@ -4444,7 +5585,7 @@
         </is>
       </c>
       <c r="C139" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D139" s="4" t="n"/>
       <c r="E139" s="4" t="n"/>
@@ -4461,7 +5602,7 @@
         </is>
       </c>
       <c r="C140" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D140" s="4" t="n"/>
       <c r="E140" s="4" t="n"/>
@@ -4478,7 +5619,7 @@
         </is>
       </c>
       <c r="C141" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D141" s="4" t="n"/>
       <c r="E141" s="4" t="n"/>
@@ -4495,7 +5636,7 @@
         </is>
       </c>
       <c r="C142" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D142" s="4" t="n"/>
       <c r="E142" s="4" t="n"/>
@@ -4512,7 +5653,7 @@
         </is>
       </c>
       <c r="C143" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D143" s="4" t="n"/>
       <c r="E143" s="4" t="n"/>
@@ -4529,7 +5670,7 @@
         </is>
       </c>
       <c r="C144" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D144" s="4" t="n"/>
       <c r="E144" s="4" t="n"/>
@@ -4546,7 +5687,7 @@
         </is>
       </c>
       <c r="C145" s="4" t="n">
-        <v>0.146</v>
+        <v>0.021</v>
       </c>
       <c r="D145" s="4" t="n"/>
       <c r="E145" s="4" t="n"/>
@@ -5665,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0</v>
+        <v>13.19202729597381</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5674,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0</v>
+        <v>14.42225192178819</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5683,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0</v>
+        <v>14.8484651534658</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5692,7 +6833,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>13.97547389405211</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5701,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>13.89752064759007</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5710,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>13.23786302188686</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5719,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0</v>
+        <v>13.69065121553858</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5728,7 +6869,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>14.85467288827727</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5737,7 +6878,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>14.02731194021522</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5746,7 +6887,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>13.79891081824079</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5755,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>13.97823864558073</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5764,7 +6905,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0</v>
+        <v>14.85833999318949</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5773,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>13.64103782523023</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5782,7 +6923,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>14.88983132377384</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5791,7 +6932,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>14.52743997670251</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5800,7 +6941,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>14.7256275802857</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5809,7 +6950,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>13.79910908240059</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5818,7 +6959,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>14.75256104036022</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5827,7 +6968,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>13.21330054943774</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5836,7 +6977,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>11.94356185204878</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5845,7 +6986,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>9.765797801815804</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5854,7 +6995,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>10.95594701234015</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5863,7 +7004,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>10.64893619645036</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5872,7 +7013,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>11.46615257449861</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5881,7 +7022,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>10.66665335713577</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5890,7 +7031,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>10.27295648347875</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5899,7 +7040,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>9.241752336205474</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5908,7 +7049,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>10.72899360764184</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5917,7 +7058,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>8.77196737341815</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5926,7 +7067,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>8.524927064611798</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5935,7 +7076,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>8.763297002417932</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5944,7 +7085,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>6.706801660215311</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5953,7 +7094,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>7.180399054444967</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5962,7 +7103,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>9.387315349042492</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5971,7 +7112,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>9.737188248838571</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5980,7 +7121,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>8.747003378159285</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5989,7 +7130,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>8.26897884340995</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5998,7 +7139,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>7.05030718948546</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6007,7 +7148,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>7.265551717003666</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6016,7 +7157,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>6.990454534328747</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6025,7 +7166,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>6.939037536937703</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6034,7 +7175,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>7.494739246026194</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6043,7 +7184,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>6.56786234445107</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6052,7 +7193,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>7.389917412332299</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6061,7 +7202,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>7.093920802705481</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6070,7 +7211,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>7.191266182158541</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6079,7 +7220,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>8.59206707244968</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6088,7 +7229,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>7.690076512671035</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6097,7 +7238,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>8.856889585029961</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6106,7 +7247,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>9.917276670014115</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6115,7 +7256,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>7.961903015907757</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6124,7 +7265,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>8.905067171886278</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6133,7 +7274,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>9.332233341649486</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6142,7 +7283,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>10.41143366673195</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6151,7 +7292,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>9.67895384172175</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6160,7 +7301,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>10.59163275404176</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6169,7 +7310,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>10.67263051437745</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6178,7 +7319,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>11.17911571774933</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6187,7 +7328,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>11.58436438008071</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6196,7 +7337,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>11.18552106548203</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6205,7 +7346,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>12.61455668900633</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6214,7 +7355,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.6220140416738517</v>
+        <v>14.18904978725607</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6223,7 +7364,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1.367087178740908</v>
+        <v>13.18623282831422</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6232,7 +7373,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1.193861149237085</v>
+        <v>14.0618691707567</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6241,7 +7382,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1.757079270324938</v>
+        <v>16.43309665536337</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6250,7 +7391,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1.1090991038328</v>
+        <v>16.96661820726595</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6259,7 +7400,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1.88469700447381</v>
+        <v>16.56067203375511</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6268,7 +7409,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.8465283762854706</v>
+        <v>16.86921527951489</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6277,7 +7418,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>0.9718385812180994</v>
+        <v>16.39027527701048</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6286,7 +7427,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>2.273145885301996</v>
+        <v>17.10301326062301</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6295,7 +7436,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>3.469686573161091</v>
+        <v>16.03799138329968</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6304,7 +7445,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>5.007256053957192</v>
+        <v>14.30491696283553</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6313,7 +7454,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>5.554669221714509</v>
+        <v>17.09044354666928</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6322,7 +7463,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>4.583488270221092</v>
+        <v>17.91259769605393</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6331,7 +7472,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>6.632819433207585</v>
+        <v>17.78700436241739</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6340,7 +7481,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>7.190144480759019</v>
+        <v>17.5201444482508</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6349,7 +7490,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>8.397042797511421</v>
+        <v>19.26884761165254</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6358,7 +7499,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>7.929622863992886</v>
+        <v>18.44363760156183</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6367,7 +7508,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>7.753135763721341</v>
+        <v>17.34391770687294</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6376,7 +7517,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>8.346574624837697</v>
+        <v>19.9383171052403</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6385,7 +7526,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>7.048738771416679</v>
+        <v>19.05572884679384</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6394,7 +7535,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>6.364431744914569</v>
+        <v>17.85658577712792</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6403,7 +7544,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>7.091517488464661</v>
+        <v>17.43897210172273</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6412,7 +7553,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>4.97632286327486</v>
+        <v>18.35412798891213</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6421,7 +7562,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>5.147217031018772</v>
+        <v>18.86981604855708</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6430,7 +7571,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>6.182371593220082</v>
+        <v>19.43615909179655</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6439,7 +7580,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>6.000242902589539</v>
+        <v>20.92504063885156</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6448,7 +7589,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>6.658650667462931</v>
+        <v>20.09407093059772</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6457,7 +7598,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>5.601597515792021</v>
+        <v>18.73762531349334</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6466,7 +7607,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>4.636558262968334</v>
+        <v>19.21788897551568</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6475,7 +7616,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>2.963549759519128</v>
+        <v>19.16718559778439</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6484,7 +7625,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>1.64574138032337</v>
+        <v>19.40556600998939</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6493,7 +7634,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>2.845335988441783</v>
+        <v>20.53556814709357</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6502,7 +7643,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>3.583061080829889</v>
+        <v>20.75828276327577</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6511,7 +7652,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>4.432151258023111</v>
+        <v>17.33417588083591</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6520,7 +7661,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>0.6380101808104544</v>
+        <v>14.29148661506635</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6529,7 +7670,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>2.687540789950706</v>
+        <v>13.40560784562894</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6538,7 +7679,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>2.809490657976728</v>
+        <v>14.81197554058958</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6547,7 +7688,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>4.166368445478819</v>
+        <v>16.64851518792481</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6556,7 +7697,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>4.823044142336061</v>
+        <v>18.35547936910048</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6565,7 +7706,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>1.713029028568332</v>
+        <v>19.13065620255331</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6574,7 +7715,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0</v>
+        <v>17.44484663874026</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6583,7 +7724,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>0.1789955078082415</v>
+        <v>17.66578159832207</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6592,7 +7733,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>0</v>
+        <v>18.2688548106702</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6601,7 +7742,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>0</v>
+        <v>18.31764087696543</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6610,7 +7751,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>0</v>
+        <v>18.3402136543107</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6619,7 +7760,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>0</v>
+        <v>16.24509453142505</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6628,7 +7769,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0</v>
+        <v>14.65369838813979</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6637,7 +7778,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>0</v>
+        <v>14.98934240681641</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6646,7 +7787,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0</v>
+        <v>13.33188825482057</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6655,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0</v>
+        <v>11.78355184052761</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6664,7 +7805,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0</v>
+        <v>11.78067643206882</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6673,7 +7814,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>0</v>
+        <v>10.52710289588531</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6682,7 +7823,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>0</v>
+        <v>9.164744238641287</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6691,7 +7832,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0</v>
+        <v>10.4206923964321</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6700,7 +7841,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0</v>
+        <v>10.8186136150754</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6709,7 +7850,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0</v>
+        <v>9.399099915177841</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6718,7 +7859,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>0</v>
+        <v>10.98191914203114</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6727,7 +7868,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>0</v>
+        <v>10.61865812519736</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6736,7 +7877,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0</v>
+        <v>12.32769750779901</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6745,7 +7886,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0</v>
+        <v>12.03372402296018</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6754,7 +7895,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0</v>
+        <v>12.17124809263697</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6763,7 +7904,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0</v>
+        <v>11.40643438060533</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6772,7 +7913,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0</v>
+        <v>11.89012364915185</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6781,7 +7922,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>0</v>
+        <v>12.07772202808387</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6790,7 +7931,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0</v>
+        <v>12.4714359410984</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6799,7 +7940,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>0</v>
+        <v>13.95014734047368</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6808,7 +7949,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0</v>
+        <v>13.40029408966024</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6817,7 +7958,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>0</v>
+        <v>14.02121996387586</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6826,7 +7967,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>0</v>
+        <v>12.41827110250971</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6835,7 +7976,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>0</v>
+        <v>11.19170411938417</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6844,7 +7985,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0</v>
+        <v>12.86677736088678</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6853,7 +7994,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0</v>
+        <v>11.75938208177399</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6862,7 +8003,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>0</v>
+        <v>11.76772399574156</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6871,7 +8012,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>0</v>
+        <v>13.55815171005266</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6880,7 +8021,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>0</v>
+        <v>13.08210753365366</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6889,7 +8030,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0</v>
+        <v>14.54863946783145</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6898,7 +8039,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>0</v>
+        <v>13.95287633956982</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6907,7 +8048,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>0</v>
+        <v>13.81661050824196</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6916,7 +8057,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>0</v>
+        <v>12.95602690257729</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6925,7 +8066,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>0</v>
+        <v>15.56537455262219</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6934,7 +8075,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>0</v>
+        <v>13.5377622660039</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6943,7 +8084,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0</v>
+        <v>13.59386491300338</v>
       </c>
     </row>
     <row r="145">
@@ -6951,7 +8092,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>0</v>
+        <v>11.70389512166734</v>
       </c>
     </row>
     <row r="146">
@@ -6998,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-3.822914260402912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7006,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-4.914184491880216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7014,7 +8155,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-5.695355170497582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7022,7 +8163,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-6.095420146805484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7030,7 +8171,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-5.764745342894806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7038,7 +8179,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-3.382441715794333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7046,7 +8187,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-5.99008505634448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7054,7 +8195,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-5.114040886767858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +8203,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-6.553135865865117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7070,7 +8211,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-4.265993897624466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7078,7 +8219,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-4.236648427103548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7086,7 +8227,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-8.935655155868034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7094,7 +8235,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-5.686650615394406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7102,7 +8243,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-5.743949857837823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7110,7 +8251,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-5.601520988538028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7118,7 +8259,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-4.183433055510753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7126,7 +8267,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-6.161099007445977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7134,7 +8275,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-5.503894205004813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7142,7 +8283,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-5.103308634283671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7150,7 +8291,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-4.99612770029274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7158,7 +8299,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-5.44278182429095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7166,7 +8307,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-5.738833391865414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7174,7 +8315,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-5.102134385577954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7182,7 +8323,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-9.981702129705161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +8331,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-8.037933111419605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7198,7 +8339,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-10.5034523607902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7206,7 +8347,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-9.81175483118091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7214,7 +8355,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-10.22621432302709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7222,7 +8363,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-15.22249934625663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7230,7 +8371,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-12.46301220467041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7238,7 +8379,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-12.12944205267969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7246,7 +8387,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-13.16878766716082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7254,7 +8395,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-14.35582555677901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7262,7 +8403,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-13.69561395613554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7270,7 +8411,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-11.66433962222764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7278,7 +8419,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-10.09504577978115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7286,7 +8427,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-13.44979613496821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7294,7 +8435,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-11.74977294832241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7302,7 +8443,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-13.71947446003783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7310,7 +8451,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-12.45769669269766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7318,7 +8459,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-11.91770658987784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7326,7 +8467,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-12.23559593142649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7334,7 +8475,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-12.24687500027394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7342,7 +8483,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-14.57340992808159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7350,7 +8491,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-11.43102193188398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7358,7 +8499,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-10.92451401498441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7366,7 +8507,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-9.315532514365643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7374,7 +8515,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-9.822150971502248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7382,7 +8523,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-12.11218331581947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7390,7 +8531,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-9.126654508505847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7398,7 +8539,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-7.065550690643716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7406,7 +8547,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-9.435868052345825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7414,7 +8555,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-6.80262471887347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -7422,7 +8563,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-5.857797157024056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -7430,7 +8571,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-6.426910432612052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -7438,7 +8579,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-6.290457162550269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7446,7 +8587,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-7.542359752053842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7454,7 +8595,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-6.59822355660868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7462,7 +8603,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-4.14777885029955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7470,7 +8611,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-1.153412304971183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7478,7 +8619,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-1.021310988492016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7806,7 +8947,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-0.02805940132949319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -7822,7 +8963,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-0.7000001076102011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +8971,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-0.577354893843643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7838,7 +8979,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-0.7784125442394061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -7846,7 +8987,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-3.607366803455249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +8995,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-7.542716716158539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7862,7 +9003,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-8.391527540381158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7870,7 +9011,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-11.51499225805164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7878,7 +9019,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-11.7645672106552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -7886,7 +9027,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-14.5877612092813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7894,7 +9035,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-16.51449693485344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7902,7 +9043,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-16.40839605642018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7910,7 +9051,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-15.97879517411455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7918,7 +9059,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-15.22291222769497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7926,7 +9067,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-12.04336811134343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7934,7 +9075,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-12.58329380916634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -7942,7 +9083,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-10.21385099489444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -7950,7 +9091,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-9.22363372923304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -7958,7 +9099,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-8.248365692241215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -7966,7 +9107,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-9.294871463991838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -7974,7 +9115,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-9.116138656159503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -7982,7 +9123,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-10.85476415920903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -7990,7 +9131,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-12.20056166052796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -7998,7 +9139,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-11.15817149495516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8006,7 +9147,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-11.11185007068974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -8014,7 +9155,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-9.317696109300311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -8022,7 +9163,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-6.504861861909115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -8030,7 +9171,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-7.46029047825974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -8038,7 +9179,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-7.131206774466499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -8046,7 +9187,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-7.76533042053019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8054,7 +9195,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-8.442595680281006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8062,7 +9203,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-8.738202185385312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -8070,7 +9211,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-10.80042537751982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8078,7 +9219,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-6.782921441575896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8086,7 +9227,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-6.95247587565143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -8094,7 +9235,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-6.320395921692111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -8102,7 +9243,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-4.416167295816686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -8110,7 +9251,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-5.487292127503843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8118,7 +9259,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-7.796657200538545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -8126,7 +9267,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-8.073481569632794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -8134,7 +9275,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-5.130465266562337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8142,7 +9283,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-6.33608073675973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix.xlsx
+++ b/testcases/timeseries/EVDay01_mix.xlsx
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015007744</v>
+        <v>2015001968</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2015009293</v>
+        <v>2014001915</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013003025</v>
+        <v>2013004922</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014008866</v>
+        <v>2013004305</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016008968</v>
+        <v>2012004427</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012007199</v>
+        <v>2013007388</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2012008256</v>
+        <v>2015000737</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2016007315</v>
+        <v>2012004259</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2016008881</v>
+        <v>2012008673</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2012008883</v>
+        <v>2013001085</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2014006895</v>
+        <v>2013007593</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2281,386 +2281,6 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2015006846</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2012008887</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2012006296</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2014000408</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>75</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2013006763</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>60</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2015000330</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2014008011</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>60</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2013006416</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>75</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2015007868</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>24</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2015002878</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>24</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2675,7 +2295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2715,84 +2335,84 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015007744</v>
+        <v>2015001968</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>48.3161916</v>
+        <v>43.34333099566241</v>
       </c>
       <c r="E2" t="n">
-        <v>59.56372428126436</v>
+        <v>59.99999999566242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2015007744</v>
+        <v>2014001915</v>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>56.10539720000001</v>
+        <v>37.48299224</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2015009293</v>
+        <v>2013004922</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>56.298518</v>
+        <v>21.53770979824406</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2015009293</v>
+        <v>2013004305</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>55.5582216</v>
+        <v>38.35847320000001</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013003025</v>
+        <v>2013004305</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6320604605412</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
@@ -2800,16 +2420,16 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013003025</v>
+        <v>2013004305</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4528244</v>
+        <v>38.3584732</v>
       </c>
       <c r="E7" t="n">
         <v>40</v>
@@ -2817,50 +2437,50 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014008866</v>
+        <v>2013004305</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>59.2597035956624</v>
+        <v>38.08488540000001</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2014008866</v>
+        <v>2012004427</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>59.25970359999999</v>
+        <v>57.9271700756624</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>59.78681682752514</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2014008866</v>
+        <v>2012004427</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
-        <v>58.8895554</v>
+        <v>57.92717008</v>
       </c>
       <c r="E10" t="n">
         <v>60</v>
@@ -2868,343 +2488,228 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2016008968</v>
+        <v>2012004427</v>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="n">
-        <v>72.68255038327787</v>
+        <v>58.00119972</v>
       </c>
       <c r="E11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2012007199</v>
+        <v>2013007388</v>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C12" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="D12" t="n">
-        <v>22.90564879824407</v>
+        <v>40.71849745566241</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2012008256</v>
+        <v>2015000737</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>19.07541959824407</v>
+        <v>56.34679819566239</v>
       </c>
       <c r="E13" t="n">
-        <v>23.99999999824405</v>
+        <v>59.29601898096332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2016007315</v>
+        <v>2015000737</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D14" t="n">
-        <v>21.29829861446735</v>
+        <v>59.25970359999999</v>
       </c>
       <c r="E14" t="n">
-        <v>29.99999999446736</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2016008881</v>
+        <v>2015000737</v>
       </c>
       <c r="B15" t="n">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C15" t="n">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D15" t="n">
-        <v>21.69580559446736</v>
+        <v>59.25970359999999</v>
       </c>
       <c r="E15" t="n">
-        <v>29.45733332780069</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012008883</v>
+        <v>2012004259</v>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D16" t="n">
-        <v>20.65295327446736</v>
+        <v>68.04765118327789</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2014006895</v>
+        <v>2012008673</v>
       </c>
       <c r="B17" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>29.44638703446736</v>
+        <v>45.48375319566242</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>47.65441986232909</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2015006846</v>
+        <v>2012008673</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>4.675</v>
+        <v>45.63116039566241</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>59.9976735180047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2012008887</v>
+        <v>2013001085</v>
       </c>
       <c r="B19" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>29.44638704</v>
+        <v>16.06595379824406</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>20.1240197747146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2012006296</v>
+        <v>2013001085</v>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D20" t="n">
-        <v>14.01603511446736</v>
+        <v>18.52824399824407</v>
       </c>
       <c r="E20" t="n">
-        <v>16.18670178113403</v>
+        <v>23.9566897112171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2012006296</v>
+        <v>2013001085</v>
       </c>
       <c r="B21" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D21" t="n">
-        <v>14.43413052113403</v>
+        <v>22.19432051824409</v>
       </c>
       <c r="E21" t="n">
-        <v>29.45733332780069</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2014000408</v>
+        <v>2013007593</v>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
+        <v>143</v>
+      </c>
+      <c r="D22" t="n">
+        <v>58.51940719566238</v>
+      </c>
+      <c r="E22" t="n">
         <v>60</v>
       </c>
-      <c r="D22" t="n">
-        <v>71.13758398327788</v>
-      </c>
-      <c r="E22" t="n">
-        <v>75</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2014000408</v>
-      </c>
-      <c r="B23" t="n">
-        <v>63</v>
-      </c>
-      <c r="C23" t="n">
-        <v>116</v>
-      </c>
-      <c r="D23" t="n">
-        <v>73.45503360000002</v>
-      </c>
-      <c r="E23" t="n">
-        <v>75</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2013006763</v>
-      </c>
-      <c r="B24" t="n">
-        <v>16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>54</v>
-      </c>
-      <c r="D24" t="n">
-        <v>58.5194071956624</v>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2013006763</v>
-      </c>
-      <c r="B25" t="n">
-        <v>57</v>
-      </c>
-      <c r="C25" t="n">
-        <v>114</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57.7791108</v>
-      </c>
-      <c r="E25" t="n">
-        <v>60</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2015000330</v>
-      </c>
-      <c r="B26" t="n">
-        <v>20</v>
-      </c>
-      <c r="C26" t="n">
-        <v>88</v>
-      </c>
-      <c r="D26" t="n">
-        <v>33.2970989</v>
-      </c>
-      <c r="E26" t="n">
-        <v>39.65296224495452</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2014008011</v>
-      </c>
-      <c r="B27" t="n">
-        <v>35</v>
-      </c>
-      <c r="C27" t="n">
-        <v>122</v>
-      </c>
-      <c r="D27" t="n">
-        <v>56.66866619566242</v>
-      </c>
-      <c r="E27" t="n">
-        <v>60</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2013006416</v>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-      <c r="C28" t="n">
-        <v>120</v>
-      </c>
-      <c r="D28" t="n">
-        <v>68.94888158327787</v>
-      </c>
-      <c r="E28" t="n">
-        <v>75</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2015007868</v>
-      </c>
-      <c r="B29" t="n">
-        <v>26</v>
-      </c>
-      <c r="C29" t="n">
-        <v>117</v>
-      </c>
-      <c r="D29" t="n">
-        <v>21.81129759824407</v>
-      </c>
-      <c r="E29" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2015002878</v>
-      </c>
-      <c r="B30" t="n">
-        <v>14</v>
-      </c>
-      <c r="C30" t="n">
-        <v>88</v>
-      </c>
-      <c r="D30" t="n">
-        <v>17.65002716024406</v>
-      </c>
-      <c r="E30" t="n">
-        <v>24</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3256,7 +2761,7 @@
         </is>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
@@ -3273,7 +2778,7 @@
         </is>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
@@ -3290,7 +2795,7 @@
         </is>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="4" t="n"/>
@@ -3307,7 +2812,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -3324,7 +2829,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="4" t="n"/>
@@ -3341,7 +2846,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D7" s="4" t="n"/>
       <c r="E7" s="4" t="n"/>
@@ -3358,7 +2863,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D8" s="4" t="n"/>
       <c r="E8" s="4" t="n"/>
@@ -3375,7 +2880,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D9" s="4" t="n"/>
       <c r="E9" s="4" t="n"/>
@@ -3392,7 +2897,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="4" t="n"/>
@@ -3409,7 +2914,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D11" s="4" t="n"/>
       <c r="E11" s="4" t="n"/>
@@ -3426,7 +2931,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D12" s="4" t="n"/>
       <c r="E12" s="4" t="n"/>
@@ -3443,7 +2948,7 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D13" s="4" t="n"/>
       <c r="E13" s="4" t="n"/>
@@ -3460,7 +2965,7 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D14" s="4" t="n"/>
       <c r="E14" s="4" t="n"/>
@@ -3477,7 +2982,7 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D15" s="4" t="n"/>
       <c r="E15" s="4" t="n"/>
@@ -3494,7 +2999,7 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D16" s="4" t="n"/>
       <c r="E16" s="4" t="n"/>
@@ -3511,7 +3016,7 @@
         </is>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D17" s="4" t="n"/>
       <c r="E17" s="4" t="n"/>
@@ -3528,7 +3033,7 @@
         </is>
       </c>
       <c r="C18" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D18" s="4" t="n"/>
       <c r="E18" s="4" t="n"/>
@@ -3545,7 +3050,7 @@
         </is>
       </c>
       <c r="C19" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D19" s="4" t="n"/>
       <c r="E19" s="4" t="n"/>
@@ -3562,7 +3067,7 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -3579,7 +3084,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -3596,7 +3101,7 @@
         </is>
       </c>
       <c r="C22" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D22" s="4" t="n"/>
       <c r="E22" s="4" t="n"/>
@@ -3613,7 +3118,7 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D23" s="4" t="n"/>
       <c r="E23" s="4" t="n"/>
@@ -3630,7 +3135,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -3647,7 +3152,7 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -3664,7 +3169,7 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -3681,7 +3186,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -3698,7 +3203,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -3715,7 +3220,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -3732,7 +3237,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3749,7 +3254,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3766,7 +3271,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -3783,7 +3288,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3800,7 +3305,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3817,7 +3322,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3834,7 +3339,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -3851,7 +3356,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3868,7 +3373,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3885,7 +3390,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3902,7 +3407,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3919,7 +3424,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3936,7 +3441,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3953,7 +3458,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.104</v>
+        <v>0.136</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3970,7 +3475,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3987,7 +3492,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -4004,7 +3509,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -4021,7 +3526,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -4038,7 +3543,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -4055,7 +3560,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -4072,7 +3577,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -4089,7 +3594,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -4106,7 +3611,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -4123,7 +3628,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -4140,7 +3645,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -4157,7 +3662,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -4174,7 +3679,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -4191,7 +3696,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -4208,7 +3713,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -4225,7 +3730,7 @@
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="4" t="n"/>
@@ -4242,7 +3747,7 @@
         </is>
       </c>
       <c r="C60" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D60" s="4" t="n"/>
       <c r="E60" s="4" t="n"/>
@@ -4259,7 +3764,7 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="4" t="n"/>
@@ -4276,7 +3781,7 @@
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D62" s="4" t="n"/>
       <c r="E62" s="4" t="n"/>
@@ -4293,7 +3798,7 @@
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D63" s="4" t="n"/>
       <c r="E63" s="4" t="n"/>
@@ -4310,7 +3815,7 @@
         </is>
       </c>
       <c r="C64" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D64" s="4" t="n"/>
       <c r="E64" s="4" t="n"/>
@@ -4327,7 +3832,7 @@
         </is>
       </c>
       <c r="C65" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D65" s="4" t="n"/>
       <c r="E65" s="4" t="n"/>
@@ -4344,7 +3849,7 @@
         </is>
       </c>
       <c r="C66" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D66" s="4" t="n"/>
       <c r="E66" s="4" t="n"/>
@@ -4361,7 +3866,7 @@
         </is>
       </c>
       <c r="C67" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D67" s="4" t="n"/>
       <c r="E67" s="4" t="n"/>
@@ -4378,7 +3883,7 @@
         </is>
       </c>
       <c r="C68" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D68" s="4" t="n"/>
       <c r="E68" s="4" t="n"/>
@@ -4395,7 +3900,7 @@
         </is>
       </c>
       <c r="C69" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D69" s="4" t="n"/>
       <c r="E69" s="4" t="n"/>
@@ -4412,7 +3917,7 @@
         </is>
       </c>
       <c r="C70" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D70" s="4" t="n"/>
       <c r="E70" s="4" t="n"/>
@@ -4429,7 +3934,7 @@
         </is>
       </c>
       <c r="C71" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D71" s="4" t="n"/>
       <c r="E71" s="4" t="n"/>
@@ -4446,7 +3951,7 @@
         </is>
       </c>
       <c r="C72" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D72" s="4" t="n"/>
       <c r="E72" s="4" t="n"/>
@@ -4463,7 +3968,7 @@
         </is>
       </c>
       <c r="C73" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D73" s="4" t="n"/>
       <c r="E73" s="4" t="n"/>
@@ -4480,7 +3985,7 @@
         </is>
       </c>
       <c r="C74" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D74" s="4" t="n"/>
       <c r="E74" s="4" t="n"/>
@@ -4497,7 +4002,7 @@
         </is>
       </c>
       <c r="C75" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D75" s="4" t="n"/>
       <c r="E75" s="4" t="n"/>
@@ -4514,7 +4019,7 @@
         </is>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D76" s="4" t="n"/>
       <c r="E76" s="4" t="n"/>
@@ -4531,7 +4036,7 @@
         </is>
       </c>
       <c r="C77" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D77" s="4" t="n"/>
       <c r="E77" s="4" t="n"/>
@@ -4548,7 +4053,7 @@
         </is>
       </c>
       <c r="C78" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D78" s="4" t="n"/>
       <c r="E78" s="4" t="n"/>
@@ -4565,7 +4070,7 @@
         </is>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D79" s="4" t="n"/>
       <c r="E79" s="4" t="n"/>
@@ -4582,7 +4087,7 @@
         </is>
       </c>
       <c r="C80" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D80" s="4" t="n"/>
       <c r="E80" s="4" t="n"/>
@@ -4599,7 +4104,7 @@
         </is>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D81" s="4" t="n"/>
       <c r="E81" s="4" t="n"/>
@@ -4616,7 +4121,7 @@
         </is>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D82" s="4" t="n"/>
       <c r="E82" s="4" t="n"/>
@@ -4633,7 +4138,7 @@
         </is>
       </c>
       <c r="C83" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D83" s="4" t="n"/>
       <c r="E83" s="4" t="n"/>
@@ -4650,7 +4155,7 @@
         </is>
       </c>
       <c r="C84" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D84" s="4" t="n"/>
       <c r="E84" s="4" t="n"/>
@@ -4667,7 +4172,7 @@
         </is>
       </c>
       <c r="C85" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D85" s="4" t="n"/>
       <c r="E85" s="4" t="n"/>
@@ -4684,7 +4189,7 @@
         </is>
       </c>
       <c r="C86" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D86" s="4" t="n"/>
       <c r="E86" s="4" t="n"/>
@@ -4701,7 +4206,7 @@
         </is>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D87" s="4" t="n"/>
       <c r="E87" s="4" t="n"/>
@@ -4718,7 +4223,7 @@
         </is>
       </c>
       <c r="C88" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D88" s="4" t="n"/>
       <c r="E88" s="4" t="n"/>
@@ -4735,7 +4240,7 @@
         </is>
       </c>
       <c r="C89" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D89" s="4" t="n"/>
       <c r="E89" s="4" t="n"/>
@@ -4752,7 +4257,7 @@
         </is>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D90" s="4" t="n"/>
       <c r="E90" s="4" t="n"/>
@@ -4769,7 +4274,7 @@
         </is>
       </c>
       <c r="C91" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D91" s="4" t="n"/>
       <c r="E91" s="4" t="n"/>
@@ -4786,7 +4291,7 @@
         </is>
       </c>
       <c r="C92" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D92" s="4" t="n"/>
       <c r="E92" s="4" t="n"/>
@@ -4803,7 +4308,7 @@
         </is>
       </c>
       <c r="C93" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D93" s="4" t="n"/>
       <c r="E93" s="4" t="n"/>
@@ -4820,7 +4325,7 @@
         </is>
       </c>
       <c r="C94" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D94" s="4" t="n"/>
       <c r="E94" s="4" t="n"/>
@@ -4837,7 +4342,7 @@
         </is>
       </c>
       <c r="C95" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D95" s="4" t="n"/>
       <c r="E95" s="4" t="n"/>
@@ -4854,7 +4359,7 @@
         </is>
       </c>
       <c r="C96" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D96" s="4" t="n"/>
       <c r="E96" s="4" t="n"/>
@@ -4871,7 +4376,7 @@
         </is>
       </c>
       <c r="C97" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D97" s="4" t="n"/>
       <c r="E97" s="4" t="n"/>
@@ -4888,7 +4393,7 @@
         </is>
       </c>
       <c r="C98" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D98" s="4" t="n"/>
       <c r="E98" s="4" t="n"/>
@@ -4905,7 +4410,7 @@
         </is>
       </c>
       <c r="C99" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D99" s="4" t="n"/>
       <c r="E99" s="4" t="n"/>
@@ -4922,7 +4427,7 @@
         </is>
       </c>
       <c r="C100" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D100" s="4" t="n"/>
       <c r="E100" s="4" t="n"/>
@@ -4939,7 +4444,7 @@
         </is>
       </c>
       <c r="C101" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D101" s="4" t="n"/>
       <c r="E101" s="4" t="n"/>
@@ -4956,7 +4461,7 @@
         </is>
       </c>
       <c r="C102" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D102" s="4" t="n"/>
       <c r="E102" s="4" t="n"/>
@@ -4973,7 +4478,7 @@
         </is>
       </c>
       <c r="C103" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D103" s="4" t="n"/>
       <c r="E103" s="4" t="n"/>
@@ -4990,7 +4495,7 @@
         </is>
       </c>
       <c r="C104" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D104" s="4" t="n"/>
       <c r="E104" s="4" t="n"/>
@@ -5007,7 +4512,7 @@
         </is>
       </c>
       <c r="C105" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D105" s="4" t="n"/>
       <c r="E105" s="4" t="n"/>
@@ -5024,7 +4529,7 @@
         </is>
       </c>
       <c r="C106" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D106" s="4" t="n"/>
       <c r="E106" s="4" t="n"/>
@@ -5041,7 +4546,7 @@
         </is>
       </c>
       <c r="C107" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D107" s="4" t="n"/>
       <c r="E107" s="4" t="n"/>
@@ -5058,7 +4563,7 @@
         </is>
       </c>
       <c r="C108" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D108" s="4" t="n"/>
       <c r="E108" s="4" t="n"/>
@@ -5075,7 +4580,7 @@
         </is>
       </c>
       <c r="C109" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D109" s="4" t="n"/>
       <c r="E109" s="4" t="n"/>
@@ -5092,7 +4597,7 @@
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D110" s="4" t="n"/>
       <c r="E110" s="4" t="n"/>
@@ -5109,7 +4614,7 @@
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D111" s="4" t="n"/>
       <c r="E111" s="4" t="n"/>
@@ -5126,7 +4631,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -5143,7 +4648,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D113" s="4" t="n"/>
       <c r="E113" s="4" t="n"/>
@@ -5160,7 +4665,7 @@
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D114" s="4" t="n"/>
       <c r="E114" s="4" t="n"/>
@@ -5177,7 +4682,7 @@
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D115" s="4" t="n"/>
       <c r="E115" s="4" t="n"/>
@@ -5194,7 +4699,7 @@
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D116" s="4" t="n"/>
       <c r="E116" s="4" t="n"/>
@@ -5211,7 +4716,7 @@
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D117" s="4" t="n"/>
       <c r="E117" s="4" t="n"/>
@@ -5228,7 +4733,7 @@
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D118" s="4" t="n"/>
       <c r="E118" s="4" t="n"/>
@@ -5245,7 +4750,7 @@
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D119" s="4" t="n"/>
       <c r="E119" s="4" t="n"/>
@@ -5262,7 +4767,7 @@
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D120" s="4" t="n"/>
       <c r="E120" s="4" t="n"/>
@@ -5279,7 +4784,7 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D121" s="4" t="n"/>
       <c r="E121" s="4" t="n"/>
@@ -5296,7 +4801,7 @@
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D122" s="4" t="n"/>
       <c r="E122" s="4" t="n"/>
@@ -5313,7 +4818,7 @@
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D123" s="4" t="n"/>
       <c r="E123" s="4" t="n"/>
@@ -5330,7 +4835,7 @@
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D124" s="4" t="n"/>
       <c r="E124" s="4" t="n"/>
@@ -5347,7 +4852,7 @@
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D125" s="4" t="n"/>
       <c r="E125" s="4" t="n"/>
@@ -5364,7 +4869,7 @@
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D126" s="4" t="n"/>
       <c r="E126" s="4" t="n"/>
@@ -5381,7 +4886,7 @@
         </is>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.008</v>
+        <v>0.04</v>
       </c>
       <c r="D127" s="4" t="n"/>
       <c r="E127" s="4" t="n"/>
@@ -5398,7 +4903,7 @@
         </is>
       </c>
       <c r="C128" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D128" s="4" t="n"/>
       <c r="E128" s="4" t="n"/>
@@ -5415,7 +4920,7 @@
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D129" s="4" t="n"/>
       <c r="E129" s="4" t="n"/>
@@ -5432,7 +4937,7 @@
         </is>
       </c>
       <c r="C130" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D130" s="4" t="n"/>
       <c r="E130" s="4" t="n"/>
@@ -5449,7 +4954,7 @@
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D131" s="4" t="n"/>
       <c r="E131" s="4" t="n"/>
@@ -5466,7 +4971,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D132" s="4" t="n"/>
       <c r="E132" s="4" t="n"/>
@@ -5483,7 +4988,7 @@
         </is>
       </c>
       <c r="C133" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D133" s="4" t="n"/>
       <c r="E133" s="4" t="n"/>
@@ -5500,7 +5005,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D134" s="4" t="n"/>
       <c r="E134" s="4" t="n"/>
@@ -5517,7 +5022,7 @@
         </is>
       </c>
       <c r="C135" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D135" s="4" t="n"/>
       <c r="E135" s="4" t="n"/>
@@ -5534,7 +5039,7 @@
         </is>
       </c>
       <c r="C136" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D136" s="4" t="n"/>
       <c r="E136" s="4" t="n"/>
@@ -5551,7 +5056,7 @@
         </is>
       </c>
       <c r="C137" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D137" s="4" t="n"/>
       <c r="E137" s="4" t="n"/>
@@ -5568,7 +5073,7 @@
         </is>
       </c>
       <c r="C138" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D138" s="4" t="n"/>
       <c r="E138" s="4" t="n"/>
@@ -5585,7 +5090,7 @@
         </is>
       </c>
       <c r="C139" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D139" s="4" t="n"/>
       <c r="E139" s="4" t="n"/>
@@ -5602,7 +5107,7 @@
         </is>
       </c>
       <c r="C140" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D140" s="4" t="n"/>
       <c r="E140" s="4" t="n"/>
@@ -5619,7 +5124,7 @@
         </is>
       </c>
       <c r="C141" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D141" s="4" t="n"/>
       <c r="E141" s="4" t="n"/>
@@ -5636,7 +5141,7 @@
         </is>
       </c>
       <c r="C142" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D142" s="4" t="n"/>
       <c r="E142" s="4" t="n"/>
@@ -5653,7 +5158,7 @@
         </is>
       </c>
       <c r="C143" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D143" s="4" t="n"/>
       <c r="E143" s="4" t="n"/>
@@ -5670,7 +5175,7 @@
         </is>
       </c>
       <c r="C144" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D144" s="4" t="n"/>
       <c r="E144" s="4" t="n"/>
@@ -5687,7 +5192,7 @@
         </is>
       </c>
       <c r="C145" s="4" t="n">
-        <v>0.021</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D145" s="4" t="n"/>
       <c r="E145" s="4" t="n"/>
@@ -6806,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>13.19202729597381</v>
+        <v>25.21629984724719</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6815,7 +6320,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>14.42225192178819</v>
+        <v>24.95831358318329</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6824,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>14.8484651534658</v>
+        <v>24.76974856895542</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6833,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>13.97547389405211</v>
+        <v>24.38465153037995</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6842,7 +6347,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>13.89752064759007</v>
+        <v>24.89255146011603</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6851,7 +6356,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>13.23786302188686</v>
+        <v>25.32702122117685</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6860,7 +6365,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>13.69065121553858</v>
+        <v>24.68758232339668</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6869,7 +6374,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>14.85467288827727</v>
+        <v>24.55862843021768</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6878,7 +6383,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>14.02731194021522</v>
+        <v>24.24993447772832</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6887,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>13.79891081824079</v>
+        <v>24.60965488516473</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6896,7 +6401,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>13.97823864558073</v>
+        <v>24.58964077555046</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6905,7 +6410,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>14.85833999318949</v>
+        <v>24.35882911093606</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6914,7 +6419,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>13.64103782523023</v>
+        <v>23.9750293430792</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6923,7 +6428,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>14.88983132377384</v>
+        <v>24.61724382159645</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6932,7 +6437,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>14.52743997670251</v>
+        <v>25.30569115117451</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6941,7 +6446,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>14.7256275802857</v>
+        <v>25.46604877521235</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6950,7 +6455,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>13.79910908240059</v>
+        <v>24.95069321627096</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6959,7 +6464,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>14.75256104036022</v>
+        <v>25.07444559566837</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6968,7 +6473,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>13.21330054943774</v>
+        <v>24.9965251848833</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6977,7 +6482,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>11.94356185204878</v>
+        <v>25.2255275828864</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6986,7 +6491,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>9.765797801815804</v>
+        <v>24.93355600070178</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6995,7 +6500,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>10.95594701234015</v>
+        <v>25.07872558099137</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -7004,7 +6509,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>10.64893619645036</v>
+        <v>24.45784730863357</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -7013,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>11.46615257449861</v>
+        <v>24.52057579264369</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -7022,7 +6527,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>10.66665335713577</v>
+        <v>25.01148550726306</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -7031,7 +6536,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>10.27295648347875</v>
+        <v>24.02239564596892</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -7040,7 +6545,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>9.241752336205474</v>
+        <v>23.81495462824407</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -7049,7 +6554,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>10.72899360764184</v>
+        <v>24.13001946064014</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -7058,7 +6563,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>8.77196737341815</v>
+        <v>23.66485245768786</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -7067,7 +6572,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>8.524927064611798</v>
+        <v>23.85810266556116</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -7076,7 +6581,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>8.763297002417932</v>
+        <v>23.45844155731366</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7085,7 +6590,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.706801660215311</v>
+        <v>22.04619857775867</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -7094,7 +6599,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>7.180399054444967</v>
+        <v>22.42639345056045</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -7103,7 +6608,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>9.387315349042492</v>
+        <v>23.14114700813122</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -7112,7 +6617,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>9.737188248838571</v>
+        <v>22.60380140800151</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -7121,7 +6626,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>8.747003378159285</v>
+        <v>22.10140960241887</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -7130,7 +6635,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>8.26897884340995</v>
+        <v>22.47127974044796</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7139,7 +6644,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>7.05030718948546</v>
+        <v>21.47551073933446</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7148,7 +6653,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>7.265551717003666</v>
+        <v>22.00041574349871</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7157,7 +6662,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>6.990454534328747</v>
+        <v>21.75911545007255</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7166,7 +6671,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>6.939037536937703</v>
+        <v>22.01937496965173</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7175,7 +6680,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>7.494739246026194</v>
+        <v>21.78593571934718</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7184,7 +6689,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>6.56786234445107</v>
+        <v>21.72729576918348</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7193,7 +6698,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>7.389917412332299</v>
+        <v>22.56933217358601</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7202,7 +6707,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>7.093920802705481</v>
+        <v>22.46684639605364</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7211,7 +6716,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>7.191266182158541</v>
+        <v>22.18249465098912</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7220,7 +6725,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>8.59206707244968</v>
+        <v>22.3072414771074</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7229,7 +6734,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>7.690076512671035</v>
+        <v>22.66084528072162</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7238,7 +6743,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>8.856889585029961</v>
+        <v>22.13552390655519</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7247,7 +6752,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>9.917276670014115</v>
+        <v>23.17154697439799</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7256,7 +6761,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.961903015907757</v>
+        <v>23.25282750585352</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7265,7 +6770,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>8.905067171886278</v>
+        <v>22.35500052883616</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7274,7 +6779,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>9.332233341649486</v>
+        <v>23.79751500418421</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7283,7 +6788,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>10.41143366673195</v>
+        <v>23.05915239723156</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7292,7 +6797,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>9.67895384172175</v>
+        <v>23.13264169596248</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7301,7 +6806,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>10.59163275404176</v>
+        <v>23.84030722795893</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7310,7 +6815,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>10.67263051437745</v>
+        <v>24.00179841214459</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7319,7 +6824,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>11.17911571774933</v>
+        <v>23.69955732758912</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7328,7 +6833,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>11.58436438008071</v>
+        <v>25.02561797999002</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7337,7 +6842,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>11.18552106548203</v>
+        <v>24.03614293576251</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7346,7 +6851,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>12.61455668900633</v>
+        <v>24.85877741025154</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7355,7 +6860,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>14.18904978725607</v>
+        <v>25.29268798433516</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7364,7 +6869,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>13.18623282831422</v>
+        <v>24.45463808133135</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7373,7 +6878,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>14.0618691707567</v>
+        <v>24.68248557710646</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7382,7 +6887,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>16.43309665536337</v>
+        <v>25.30539629723517</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7391,7 +6896,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>16.96661820726595</v>
+        <v>23.69162770062411</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7400,7 +6905,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>16.56067203375511</v>
+        <v>24.25422144434155</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7409,7 +6914,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>16.86921527951489</v>
+        <v>23.96768787627166</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7418,7 +6923,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>16.39027527701048</v>
+        <v>23.66098709770226</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7427,7 +6932,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>17.10301326062301</v>
+        <v>24.63851550421336</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7436,7 +6941,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>16.03799138329968</v>
+        <v>25.18662549874303</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7445,7 +6950,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>14.30491696283553</v>
+        <v>25.33022469179402</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7454,7 +6959,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>17.09044354666928</v>
+        <v>25.81451116398348</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7463,7 +6968,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>17.91259769605393</v>
+        <v>25.94156804843314</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7472,7 +6977,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>17.78700436241739</v>
+        <v>25.19758590781939</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7481,7 +6986,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>17.5201444482508</v>
+        <v>25.21949455530272</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7490,7 +6995,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>19.26884761165254</v>
+        <v>26.50343006019385</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7499,7 +7004,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>18.44363760156183</v>
+        <v>25.47418826055084</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7508,7 +7013,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>17.34391770687294</v>
+        <v>25.29214601783334</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7517,7 +7022,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>19.9383171052403</v>
+        <v>25.89397651701159</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7526,7 +7031,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>19.05572884679384</v>
+        <v>25.6939644342281</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7535,7 +7040,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>17.85658577712792</v>
+        <v>25.5275473526467</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7544,7 +7049,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>17.43897210172273</v>
+        <v>25.76853672706497</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7553,7 +7058,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>18.35412798891213</v>
+        <v>25.25995277126452</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7562,7 +7067,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>18.86981604855708</v>
+        <v>25.71777689079427</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7571,7 +7076,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>19.43615909179655</v>
+        <v>25.58907206998983</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7580,7 +7085,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>20.92504063885156</v>
+        <v>25.92450137829445</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7589,7 +7094,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>20.09407093059772</v>
+        <v>25.80641447521131</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7598,7 +7103,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>18.73762531349334</v>
+        <v>25.85577777336511</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7607,7 +7112,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>19.21788897551568</v>
+        <v>26.14624908280088</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7616,7 +7121,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>19.16718559778439</v>
+        <v>26.02572051754837</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7625,7 +7130,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>19.40556600998939</v>
+        <v>26.3718879515562</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7634,7 +7139,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>20.53556814709357</v>
+        <v>25.68641681098028</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7643,7 +7148,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>20.75828276327577</v>
+        <v>25.53002181249432</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7652,7 +7157,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>17.33417588083591</v>
+        <v>26.01349065943999</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7661,7 +7166,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>14.29148661506635</v>
+        <v>25.27873226732461</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7670,7 +7175,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>13.40560784562894</v>
+        <v>25.37286181702767</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7679,7 +7184,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>14.81197554058958</v>
+        <v>24.99749564581614</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7688,7 +7193,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>16.64851518792481</v>
+        <v>25.94184543925504</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7697,7 +7202,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>18.35547936910048</v>
+        <v>26.38199899029838</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7706,7 +7211,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>19.13065620255331</v>
+        <v>26.09097322357425</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7715,7 +7220,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>17.44484663874026</v>
+        <v>25.71852242279333</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7724,7 +7229,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>17.66578159832207</v>
+        <v>26.01579364045127</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7733,7 +7238,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>18.2688548106702</v>
+        <v>25.37195230400176</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7742,7 +7247,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>18.31764087696543</v>
+        <v>25.60061891692829</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7751,7 +7256,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>18.3402136543107</v>
+        <v>26.00557737663872</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7760,7 +7265,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>16.24509453142505</v>
+        <v>23.95415773725355</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7769,7 +7274,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>14.65369838813979</v>
+        <v>24.5533515851495</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7778,7 +7283,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>14.98934240681641</v>
+        <v>24.89588942562924</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7787,7 +7292,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>13.33188825482057</v>
+        <v>24.14255217869988</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7796,7 +7301,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>11.78355184052761</v>
+        <v>23.6501616439335</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7805,7 +7310,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>11.78067643206882</v>
+        <v>23.99225589082142</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7814,7 +7319,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>10.52710289588531</v>
+        <v>23.60968619422905</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7823,7 +7328,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>9.164744238641287</v>
+        <v>23.76461537508792</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7832,7 +7337,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>10.4206923964321</v>
+        <v>24.07623631901319</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7841,7 +7346,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>10.8186136150754</v>
+        <v>23.23724701226823</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7850,7 +7355,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9.399099915177841</v>
+        <v>23.18048805840514</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7859,7 +7364,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>10.98191914203114</v>
+        <v>22.97489361284327</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7868,7 +7373,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>10.61865812519736</v>
+        <v>22.93401625212717</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7877,7 +7382,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>12.32769750779901</v>
+        <v>23.135780459182</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7886,7 +7391,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>12.03372402296018</v>
+        <v>23.37839187876698</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7895,7 +7400,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>12.17124809263697</v>
+        <v>23.57569698622296</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7904,7 +7409,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>11.40643438060533</v>
+        <v>23.66664250327468</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7913,7 +7418,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>11.89012364915185</v>
+        <v>23.35945356765665</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7922,7 +7427,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>12.07772202808387</v>
+        <v>23.73697736409309</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7931,7 +7436,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>12.4714359410984</v>
+        <v>23.51616891042022</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7940,7 +7445,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>13.95014734047368</v>
+        <v>23.58250785653949</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7949,7 +7454,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>13.40029408966024</v>
+        <v>24.19066631269844</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7958,7 +7463,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>14.02121996387586</v>
+        <v>23.88327166472799</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7967,7 +7472,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>12.41827110250971</v>
+        <v>23.93692403092817</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7976,7 +7481,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>11.19170411938417</v>
+        <v>23.74034284682942</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7985,7 +7490,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>12.86677736088678</v>
+        <v>24.24805131283432</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7994,7 +7499,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>11.75938208177399</v>
+        <v>23.91809808640226</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -8003,7 +7508,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>11.76772399574156</v>
+        <v>23.89732696933229</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -8012,7 +7517,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>13.55815171005266</v>
+        <v>24.28969166789042</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -8021,7 +7526,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>13.08210753365366</v>
+        <v>23.98263966029021</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -8030,7 +7535,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>14.54863946783145</v>
+        <v>24.232936214097</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -8039,7 +7544,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>13.95287633956982</v>
+        <v>24.77736426073915</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -8048,7 +7553,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>13.81661050824196</v>
+        <v>24.36071465876284</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -8057,7 +7562,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>12.95602690257729</v>
+        <v>24.58918034575423</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -8066,7 +7571,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>15.56537455262219</v>
+        <v>24.60388429572498</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -8075,7 +7580,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>13.5377622660039</v>
+        <v>24.50323229606618</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -8084,7 +7589,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>13.59386491300338</v>
+        <v>25.06447469043249</v>
       </c>
     </row>
     <row r="145">
@@ -8092,7 +7597,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>11.70389512166734</v>
+        <v>25.35578754874172</v>
       </c>
     </row>
     <row r="146">
@@ -8139,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0</v>
+        <v>-36.93843776786827</v>
       </c>
     </row>
     <row r="3">
@@ -8147,7 +7652,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0</v>
+        <v>-36.89302708603306</v>
       </c>
     </row>
     <row r="4">
@@ -8155,7 +7660,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0</v>
+        <v>-37.11503098198359</v>
       </c>
     </row>
     <row r="5">
@@ -8163,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>-37.11354438465704</v>
       </c>
     </row>
     <row r="6">
@@ -8171,7 +7676,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>-37.0654070324086</v>
       </c>
     </row>
     <row r="7">
@@ -8179,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0</v>
+        <v>-37.02063683409661</v>
       </c>
     </row>
     <row r="8">
@@ -8187,7 +7692,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0</v>
+        <v>-37.30871597407844</v>
       </c>
     </row>
     <row r="9">
@@ -8195,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0</v>
+        <v>-37.05511660528414</v>
       </c>
     </row>
     <row r="10">
@@ -8203,7 +7708,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0</v>
+        <v>-36.92739054822879</v>
       </c>
     </row>
     <row r="11">
@@ -8211,7 +7716,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0</v>
+        <v>-36.94854434169026</v>
       </c>
     </row>
     <row r="12">
@@ -8219,7 +7724,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0</v>
+        <v>-37.11851757095106</v>
       </c>
     </row>
     <row r="13">
@@ -8227,7 +7732,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0</v>
+        <v>-37.03664389975576</v>
       </c>
     </row>
     <row r="14">
@@ -8235,7 +7740,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0</v>
+        <v>-37.05400036511798</v>
       </c>
     </row>
     <row r="15">
@@ -8243,7 +7748,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>-37.18795409712508</v>
       </c>
     </row>
     <row r="16">
@@ -8251,7 +7756,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0</v>
+        <v>-36.92934558793408</v>
       </c>
     </row>
     <row r="17">
@@ -8259,7 +7764,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0</v>
+        <v>-36.98669596699299</v>
       </c>
     </row>
     <row r="18">
@@ -8267,7 +7772,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0</v>
+        <v>-36.86400965582649</v>
       </c>
     </row>
     <row r="19">
@@ -8275,7 +7780,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0</v>
+        <v>-36.89800822070432</v>
       </c>
     </row>
     <row r="20">
@@ -8283,7 +7788,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>-36.97519862320222</v>
       </c>
     </row>
     <row r="21">
@@ -8291,7 +7796,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>-37.0623679109108</v>
       </c>
     </row>
     <row r="22">
@@ -8299,7 +7804,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>0</v>
+        <v>-37.00437034108231</v>
       </c>
     </row>
     <row r="23">
@@ -8307,7 +7812,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>-37.06899287163651</v>
       </c>
     </row>
     <row r="24">
@@ -8315,7 +7820,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>-36.99784884462328</v>
       </c>
     </row>
     <row r="25">
@@ -8323,7 +7828,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>-37.21334107752176</v>
       </c>
     </row>
     <row r="26">
@@ -8331,7 +7836,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>-37.18901147737694</v>
       </c>
     </row>
     <row r="27">
@@ -8339,7 +7844,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>-37.47289238611129</v>
       </c>
     </row>
     <row r="28">
@@ -8347,7 +7852,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>-37.26008409078116</v>
       </c>
     </row>
     <row r="29">
@@ -8355,7 +7860,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>-37.46425822871864</v>
       </c>
     </row>
     <row r="30">
@@ -8363,7 +7868,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>-37.85577121634306</v>
       </c>
     </row>
     <row r="31">
@@ -8371,7 +7876,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>-37.85039049837739</v>
       </c>
     </row>
     <row r="32">
@@ -8379,7 +7884,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>-38.31109013358284</v>
       </c>
     </row>
     <row r="33">
@@ -8387,7 +7892,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>-39.02971178375643</v>
       </c>
     </row>
     <row r="34">
@@ -8395,7 +7900,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>-38.9832732472461</v>
       </c>
     </row>
     <row r="35">
@@ -8403,7 +7908,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>-38.79558602957833</v>
       </c>
     </row>
     <row r="36">
@@ -8411,7 +7916,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>-38.87862819504429</v>
       </c>
     </row>
     <row r="37">
@@ -8419,7 +7924,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>-38.80390945862833</v>
       </c>
     </row>
     <row r="38">
@@ -8427,7 +7932,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>-38.90578453271323</v>
       </c>
     </row>
     <row r="39">
@@ -8435,7 +7940,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>-39.23670172415737</v>
       </c>
     </row>
     <row r="40">
@@ -8443,7 +7948,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>-38.76899401592885</v>
       </c>
     </row>
     <row r="41">
@@ -8451,7 +7956,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>-38.87612285624241</v>
       </c>
     </row>
     <row r="42">
@@ -8459,7 +7964,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>-39.50739949343631</v>
       </c>
     </row>
     <row r="43">
@@ -8467,7 +7972,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>-39.06267841826308</v>
       </c>
     </row>
     <row r="44">
@@ -8475,7 +7980,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>-39.34470351294105</v>
       </c>
     </row>
     <row r="45">
@@ -8483,7 +7988,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>-38.83041999129132</v>
       </c>
     </row>
     <row r="46">
@@ -8491,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>-38.68577999778413</v>
       </c>
     </row>
     <row r="47">
@@ -8499,7 +8004,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>-38.53263260635725</v>
       </c>
     </row>
     <row r="48">
@@ -8507,7 +8012,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>-38.65022514862248</v>
       </c>
     </row>
     <row r="49">
@@ -8515,7 +8020,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>-38.39465319200107</v>
       </c>
     </row>
     <row r="50">
@@ -8523,7 +8028,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>-38.41375797972205</v>
       </c>
     </row>
     <row r="51">
@@ -8531,7 +8036,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>-38.69167701004096</v>
       </c>
     </row>
     <row r="52">
@@ -8539,7 +8044,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>-38.64543347020671</v>
       </c>
     </row>
     <row r="53">
@@ -8547,7 +8052,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>-38.6105982612535</v>
       </c>
     </row>
     <row r="54">
@@ -8555,7 +8060,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>-38.31494832196407</v>
       </c>
     </row>
     <row r="55">
@@ -8563,7 +8068,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>-38.31771450234161</v>
       </c>
     </row>
     <row r="56">
@@ -8571,7 +8076,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>-38.31805530578303</v>
       </c>
     </row>
     <row r="57">
@@ -8579,7 +8084,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>-38.13952722046104</v>
       </c>
     </row>
     <row r="58">
@@ -8587,7 +8092,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>-38.11542559589598</v>
       </c>
     </row>
     <row r="59">
@@ -8595,7 +8100,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>-37.76009550115943</v>
       </c>
     </row>
     <row r="60">
@@ -8603,7 +8108,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0</v>
+        <v>-37.45179051231892</v>
       </c>
     </row>
     <row r="61">
@@ -8611,7 +8116,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>-37.43401454939643</v>
       </c>
     </row>
     <row r="62">
@@ -8619,7 +8124,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>-37.39399111543535</v>
       </c>
     </row>
     <row r="63">
@@ -8627,7 +8132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0</v>
+        <v>-37.38364612990403</v>
       </c>
     </row>
     <row r="64">
@@ -8635,7 +8140,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0</v>
+        <v>-37.28442853442234</v>
       </c>
     </row>
     <row r="65">
@@ -8643,7 +8148,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0</v>
+        <v>-37.28997620470739</v>
       </c>
     </row>
     <row r="66">
@@ -8651,7 +8156,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>0</v>
+        <v>-37.06747609280808</v>
       </c>
     </row>
     <row r="67">
@@ -8659,7 +8164,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0</v>
+        <v>-37.33679989258853</v>
       </c>
     </row>
     <row r="68">
@@ -8667,7 +8172,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0</v>
+        <v>-37.3811779036135</v>
       </c>
     </row>
     <row r="69">
@@ -8675,7 +8180,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0</v>
+        <v>-37.36866119930118</v>
       </c>
     </row>
     <row r="70">
@@ -8683,7 +8188,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>0</v>
+        <v>-37.00441614555938</v>
       </c>
     </row>
     <row r="71">
@@ -8691,7 +8196,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>0</v>
+        <v>-37.13080417862176</v>
       </c>
     </row>
     <row r="72">
@@ -8699,7 +8204,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>0</v>
+        <v>-36.65087780456806</v>
       </c>
     </row>
     <row r="73">
@@ -8707,7 +8212,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>0</v>
+        <v>-36.57525821939208</v>
       </c>
     </row>
     <row r="74">
@@ -8715,7 +8220,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>0</v>
+        <v>-36.62482144458268</v>
       </c>
     </row>
     <row r="75">
@@ -8723,7 +8228,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>0</v>
+        <v>-36.67682143030378</v>
       </c>
     </row>
     <row r="76">
@@ -8731,7 +8236,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>0</v>
+        <v>-36.56885560946002</v>
       </c>
     </row>
     <row r="77">
@@ -8739,7 +8244,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>0</v>
+        <v>-36.56932529774559</v>
       </c>
     </row>
     <row r="78">
@@ -8747,7 +8252,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>0</v>
+        <v>-36.45100915979565</v>
       </c>
     </row>
     <row r="79">
@@ -8755,7 +8260,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>0</v>
+        <v>-36.49043418918308</v>
       </c>
     </row>
     <row r="80">
@@ -8763,7 +8268,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0</v>
+        <v>-36.54371644145898</v>
       </c>
     </row>
     <row r="81">
@@ -8771,7 +8276,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>0</v>
+        <v>-36.41982369441963</v>
       </c>
     </row>
     <row r="82">
@@ -8779,7 +8284,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>0</v>
+        <v>-36.45089358989824</v>
       </c>
     </row>
     <row r="83">
@@ -8787,7 +8292,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>0</v>
+        <v>-36.40316313220824</v>
       </c>
     </row>
     <row r="84">
@@ -8795,7 +8300,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>0</v>
+        <v>-36.41406125874749</v>
       </c>
     </row>
     <row r="85">
@@ -8803,7 +8308,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>0</v>
+        <v>-36.40823857279808</v>
       </c>
     </row>
     <row r="86">
@@ -8811,7 +8316,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>0</v>
+        <v>-36.42080672223843</v>
       </c>
     </row>
     <row r="87">
@@ -8819,7 +8324,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>0</v>
+        <v>-36.29480926204712</v>
       </c>
     </row>
     <row r="88">
@@ -8827,7 +8332,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>0</v>
+        <v>-36.37360289897159</v>
       </c>
     </row>
     <row r="89">
@@ -8835,7 +8340,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>0</v>
+        <v>-36.32307134259937</v>
       </c>
     </row>
     <row r="90">
@@ -8843,7 +8348,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>0</v>
+        <v>-36.28662441955061</v>
       </c>
     </row>
     <row r="91">
@@ -8851,7 +8356,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>0</v>
+        <v>-36.2890861997875</v>
       </c>
     </row>
     <row r="92">
@@ -8859,7 +8364,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>0</v>
+        <v>-36.29515791454239</v>
       </c>
     </row>
     <row r="93">
@@ -8867,7 +8372,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>0</v>
+        <v>-36.29861362892189</v>
       </c>
     </row>
     <row r="94">
@@ -8875,7 +8380,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>0</v>
+        <v>-36.40760002608003</v>
       </c>
     </row>
     <row r="95">
@@ -8883,7 +8388,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>0</v>
+        <v>-36.29104337580027</v>
       </c>
     </row>
     <row r="96">
@@ -8891,7 +8396,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>0</v>
+        <v>-36.27900596004655</v>
       </c>
     </row>
     <row r="97">
@@ -8899,7 +8404,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>0</v>
+        <v>-36.39728058604514</v>
       </c>
     </row>
     <row r="98">
@@ -8907,7 +8412,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>0</v>
+        <v>-36.29649721641783</v>
       </c>
     </row>
     <row r="99">
@@ -8915,7 +8420,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>0</v>
+        <v>-36.26042129603902</v>
       </c>
     </row>
     <row r="100">
@@ -8923,7 +8428,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>0</v>
+        <v>-36.33981403817724</v>
       </c>
     </row>
     <row r="101">
@@ -8931,7 +8436,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>0</v>
+        <v>-36.26784798049257</v>
       </c>
     </row>
     <row r="102">
@@ -8939,7 +8444,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>0</v>
+        <v>-36.27710842119843</v>
       </c>
     </row>
     <row r="103">
@@ -8947,7 +8452,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0</v>
+        <v>-36.28727318574615</v>
       </c>
     </row>
     <row r="104">
@@ -8955,7 +8460,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>0</v>
+        <v>-36.30476066360114</v>
       </c>
     </row>
     <row r="105">
@@ -8963,7 +8468,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>0</v>
+        <v>-36.39628823539422</v>
       </c>
     </row>
     <row r="106">
@@ -8971,7 +8476,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>0</v>
+        <v>-36.37785947079545</v>
       </c>
     </row>
     <row r="107">
@@ -8979,7 +8484,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>0</v>
+        <v>-36.75531647927161</v>
       </c>
     </row>
     <row r="108">
@@ -8987,7 +8492,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>0</v>
+        <v>-37.50481552038745</v>
       </c>
     </row>
     <row r="109">
@@ -8995,7 +8500,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0</v>
+        <v>-37.41164986350446</v>
       </c>
     </row>
     <row r="110">
@@ -9003,7 +8508,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>0</v>
+        <v>-37.26237794209701</v>
       </c>
     </row>
     <row r="111">
@@ -9011,7 +8516,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0</v>
+        <v>-37.51379273503169</v>
       </c>
     </row>
     <row r="112">
@@ -9019,7 +8524,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0</v>
+        <v>-37.29151315414716</v>
       </c>
     </row>
     <row r="113">
@@ -9027,7 +8532,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0</v>
+        <v>-37.26016615434681</v>
       </c>
     </row>
     <row r="114">
@@ -9035,7 +8540,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>0</v>
+        <v>-37.16977397756687</v>
       </c>
     </row>
     <row r="115">
@@ -9043,7 +8548,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>0</v>
+        <v>-37.44461119100456</v>
       </c>
     </row>
     <row r="116">
@@ -9051,7 +8556,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0</v>
+        <v>-37.53312365067941</v>
       </c>
     </row>
     <row r="117">
@@ -9059,7 +8564,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0</v>
+        <v>-38.23737864050998</v>
       </c>
     </row>
     <row r="118">
@@ -9067,7 +8572,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0</v>
+        <v>-37.80958854410257</v>
       </c>
     </row>
     <row r="119">
@@ -9075,7 +8580,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>0</v>
+        <v>-37.7668812592574</v>
       </c>
     </row>
     <row r="120">
@@ -9083,7 +8588,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>0</v>
+        <v>-37.52681671506306</v>
       </c>
     </row>
     <row r="121">
@@ -9091,7 +8596,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0</v>
+        <v>-37.45733542537294</v>
       </c>
     </row>
     <row r="122">
@@ -9099,7 +8604,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0</v>
+        <v>-37.62919124172739</v>
       </c>
     </row>
     <row r="123">
@@ -9107,7 +8612,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0</v>
+        <v>-37.39541567481815</v>
       </c>
     </row>
     <row r="124">
@@ -9115,7 +8620,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0</v>
+        <v>-37.48263243276782</v>
       </c>
     </row>
     <row r="125">
@@ -9123,7 +8628,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0</v>
+        <v>-37.37358639786495</v>
       </c>
     </row>
     <row r="126">
@@ -9131,7 +8636,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>0</v>
+        <v>-37.46028709382505</v>
       </c>
     </row>
     <row r="127">
@@ -9139,7 +8644,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0</v>
+        <v>-37.25033859118459</v>
       </c>
     </row>
     <row r="128">
@@ -9147,7 +8652,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>0</v>
+        <v>-37.41042041678877</v>
       </c>
     </row>
     <row r="129">
@@ -9155,7 +8660,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0</v>
+        <v>-37.34367786604289</v>
       </c>
     </row>
     <row r="130">
@@ -9163,7 +8668,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>0</v>
+        <v>-37.29476796390085</v>
       </c>
     </row>
     <row r="131">
@@ -9171,7 +8676,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>0</v>
+        <v>-37.29654295615112</v>
       </c>
     </row>
     <row r="132">
@@ -9179,7 +8684,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>0</v>
+        <v>-37.09150263173115</v>
       </c>
     </row>
     <row r="133">
@@ -9187,7 +8692,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0</v>
+        <v>-37.27378927836585</v>
       </c>
     </row>
     <row r="134">
@@ -9195,7 +8700,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0</v>
+        <v>-37.28288058073735</v>
       </c>
     </row>
     <row r="135">
@@ -9203,7 +8708,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>0</v>
+        <v>-36.945803565417</v>
       </c>
     </row>
     <row r="136">
@@ -9211,7 +8716,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>0</v>
+        <v>-37.1312945616776</v>
       </c>
     </row>
     <row r="137">
@@ -9219,7 +8724,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>0</v>
+        <v>-37.02905912049637</v>
       </c>
     </row>
     <row r="138">
@@ -9227,7 +8732,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0</v>
+        <v>-37.07441357408998</v>
       </c>
     </row>
     <row r="139">
@@ -9235,7 +8740,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>0</v>
+        <v>-37.01673825976076</v>
       </c>
     </row>
     <row r="140">
@@ -9243,7 +8748,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>0</v>
+        <v>-37.02195165670576</v>
       </c>
     </row>
     <row r="141">
@@ -9251,7 +8756,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>0</v>
+        <v>-36.99396576306636</v>
       </c>
     </row>
     <row r="142">
@@ -9259,7 +8764,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>0</v>
+        <v>-36.94833776373353</v>
       </c>
     </row>
     <row r="143">
@@ -9267,7 +8772,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>0</v>
+        <v>-36.95629628196306</v>
       </c>
     </row>
     <row r="144">
@@ -9275,7 +8780,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0</v>
+        <v>-37.07873633464543</v>
       </c>
     </row>
     <row r="145">
@@ -9283,7 +8788,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>0</v>
+        <v>-36.99261974325831</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix.xlsx
+++ b/testcases/timeseries/EVDay01_mix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015001968</v>
+        <v>2012005668</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014001915</v>
+        <v>2015006795</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013004922</v>
+        <v>2016002542</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013004305</v>
+        <v>2015007758</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012004427</v>
+        <v>2014003204</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013007388</v>
+        <v>2016003503</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2015000737</v>
+        <v>2014006709</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012004259</v>
+        <v>2015005970</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2149,7 +2149,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2012008673</v>
+        <v>2016006533</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013001085</v>
+        <v>2013007191</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2013007593</v>
+        <v>2014003984</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2281,6 +2281,44 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2012001108</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2335,33 +2373,33 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015001968</v>
+        <v>2012005668</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>43.34333099566241</v>
+        <v>35.6225946605412</v>
       </c>
       <c r="E2" t="n">
-        <v>59.99999999566242</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001915</v>
+        <v>2012005668</v>
       </c>
       <c r="B3" t="n">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>37.48299224</v>
+        <v>36.4433586</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
@@ -2369,33 +2407,33 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2013004922</v>
+        <v>2015006795</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>120</v>
       </c>
       <c r="D4" t="n">
-        <v>21.53770979824406</v>
+        <v>8.819036960541197</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>39.45648313833188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013004305</v>
+        <v>2016002542</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>38.35847320000001</v>
+        <v>39.72641166054119</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -2403,292 +2441,208 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013004305</v>
+        <v>2015007758</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>38.90564879999999</v>
+        <v>28.33916111446736</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013004305</v>
+        <v>2014003204</v>
       </c>
       <c r="B7" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3584732</v>
+        <v>57.77911079566238</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013004305</v>
+        <v>2016003503</v>
       </c>
       <c r="B8" t="n">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D8" t="n">
-        <v>38.08488540000001</v>
+        <v>52.5970359956624</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012004427</v>
+        <v>2016003503</v>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>57.9271700756624</v>
+        <v>55.92836980000001</v>
       </c>
       <c r="E9" t="n">
-        <v>59.78681682752514</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012004427</v>
+        <v>2014006709</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="D10" t="n">
-        <v>57.92717008</v>
+        <v>25.38924089446736</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>29.8166409859083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2012004427</v>
+        <v>2015005970</v>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D11" t="n">
-        <v>58.00119972</v>
+        <v>38.35847266054121</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2013007388</v>
+        <v>2016006533</v>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>40.71849745566241</v>
+        <v>38.90564826054121</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015000737</v>
+        <v>2013007191</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>56.34679819566239</v>
+        <v>54.11076678327787</v>
       </c>
       <c r="E13" t="n">
-        <v>59.29601898096332</v>
+        <v>67.72870163506882</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2015000737</v>
+        <v>2013007191</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D14" t="n">
-        <v>59.25970359999999</v>
+        <v>72.6825503832779</v>
       </c>
       <c r="E14" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2015000737</v>
+        <v>2014003984</v>
       </c>
       <c r="B15" t="n">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D15" t="n">
-        <v>59.25970359999999</v>
+        <v>69.59261758327787</v>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2012004259</v>
+        <v>2012001108</v>
       </c>
       <c r="B16" t="n">
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>68.04765118327789</v>
+        <v>48.89555399566242</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2012008673</v>
-      </c>
-      <c r="B17" t="n">
-        <v>24</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.48375319566242</v>
-      </c>
-      <c r="E17" t="n">
-        <v>47.65441986232909</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2012008673</v>
-      </c>
-      <c r="B18" t="n">
-        <v>35</v>
-      </c>
-      <c r="C18" t="n">
-        <v>88</v>
-      </c>
-      <c r="D18" t="n">
-        <v>45.63116039566241</v>
-      </c>
-      <c r="E18" t="n">
-        <v>59.9976735180047</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2013001085</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.06595379824406</v>
-      </c>
-      <c r="E19" t="n">
-        <v>20.1240197747146</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2013001085</v>
-      </c>
-      <c r="B20" t="n">
-        <v>45</v>
-      </c>
-      <c r="C20" t="n">
-        <v>66</v>
-      </c>
-      <c r="D20" t="n">
-        <v>18.52824399824407</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23.9566897112171</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2013001085</v>
-      </c>
-      <c r="B21" t="n">
-        <v>68</v>
-      </c>
-      <c r="C21" t="n">
-        <v>114</v>
-      </c>
-      <c r="D21" t="n">
-        <v>22.19432051824409</v>
-      </c>
-      <c r="E21" t="n">
-        <v>24</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2013007593</v>
-      </c>
-      <c r="B22" t="n">
-        <v>33</v>
-      </c>
-      <c r="C22" t="n">
-        <v>143</v>
-      </c>
-      <c r="D22" t="n">
-        <v>58.51940719566238</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -4597,7 +4551,7 @@
         </is>
       </c>
       <c r="C110" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D110" s="4" t="n"/>
       <c r="E110" s="4" t="n"/>
@@ -4614,7 +4568,7 @@
         </is>
       </c>
       <c r="C111" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D111" s="4" t="n"/>
       <c r="E111" s="4" t="n"/>
@@ -4631,7 +4585,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -4648,7 +4602,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D113" s="4" t="n"/>
       <c r="E113" s="4" t="n"/>
@@ -4665,7 +4619,7 @@
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D114" s="4" t="n"/>
       <c r="E114" s="4" t="n"/>
@@ -4682,7 +4636,7 @@
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D115" s="4" t="n"/>
       <c r="E115" s="4" t="n"/>
@@ -4699,7 +4653,7 @@
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D116" s="4" t="n"/>
       <c r="E116" s="4" t="n"/>
@@ -4716,7 +4670,7 @@
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D117" s="4" t="n"/>
       <c r="E117" s="4" t="n"/>
@@ -4733,7 +4687,7 @@
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D118" s="4" t="n"/>
       <c r="E118" s="4" t="n"/>
@@ -4750,7 +4704,7 @@
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D119" s="4" t="n"/>
       <c r="E119" s="4" t="n"/>
@@ -4767,7 +4721,7 @@
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D120" s="4" t="n"/>
       <c r="E120" s="4" t="n"/>
@@ -4784,7 +4738,7 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D121" s="4" t="n"/>
       <c r="E121" s="4" t="n"/>
@@ -4801,7 +4755,7 @@
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D122" s="4" t="n"/>
       <c r="E122" s="4" t="n"/>
@@ -4818,7 +4772,7 @@
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D123" s="4" t="n"/>
       <c r="E123" s="4" t="n"/>
@@ -4835,7 +4789,7 @@
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D124" s="4" t="n"/>
       <c r="E124" s="4" t="n"/>
@@ -4852,7 +4806,7 @@
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D125" s="4" t="n"/>
       <c r="E125" s="4" t="n"/>
@@ -4869,7 +4823,7 @@
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D126" s="4" t="n"/>
       <c r="E126" s="4" t="n"/>
@@ -4886,7 +4840,7 @@
         </is>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.04</v>
+        <v>0.136</v>
       </c>
       <c r="D127" s="4" t="n"/>
       <c r="E127" s="4" t="n"/>
@@ -5644,8 +5598,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5694,10 +5648,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.595844086584577</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.181896795961758</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -5962,7 +5916,7 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6311,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>25.21629984724719</v>
+        <v>16.85476780084709</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6320,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>24.95831358318329</v>
+        <v>17.4741995180347</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6329,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>24.76974856895542</v>
+        <v>17.06786322169906</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6338,7 +6292,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>24.38465153037995</v>
+        <v>17.13868638049087</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6347,7 +6301,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>24.89255146011603</v>
+        <v>16.63237917039019</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6356,7 +6310,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>25.32702122117685</v>
+        <v>16.89481319638826</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6365,7 +6319,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>24.68758232339668</v>
+        <v>16.97928909097195</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6374,7 +6328,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>24.55862843021768</v>
+        <v>16.59283406118735</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6383,7 +6337,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>24.24993447772832</v>
+        <v>17.72736630314074</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6392,7 +6346,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>24.60965488516473</v>
+        <v>16.60325509489672</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6401,7 +6355,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>24.58964077555046</v>
+        <v>17.63634424038103</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6410,7 +6364,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>24.35882911093606</v>
+        <v>16.3682881967669</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6419,7 +6373,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>23.9750293430792</v>
+        <v>15.61209606895324</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6428,7 +6382,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>24.61724382159645</v>
+        <v>16.30009000838497</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6437,7 +6391,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>25.30569115117451</v>
+        <v>14.92452639130152</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6446,7 +6400,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>25.46604877521235</v>
+        <v>14.08771356868323</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6455,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>24.95069321627096</v>
+        <v>14.12302930542033</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6464,7 +6418,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>25.07444559566837</v>
+        <v>14.49363396705559</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6473,7 +6427,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>24.9965251848833</v>
+        <v>14.94169477015258</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6482,7 +6436,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>25.2255275828864</v>
+        <v>16.48035493419491</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6491,7 +6445,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>24.93355600070178</v>
+        <v>16.60596320492532</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6500,7 +6454,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>25.07872558099137</v>
+        <v>15.66153680987598</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6509,7 +6463,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>24.45784730863357</v>
+        <v>15.12653849887119</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6518,7 +6472,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>24.52057579264369</v>
+        <v>14.72230238270803</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6527,7 +6481,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>25.01148550726306</v>
+        <v>14.72484418713872</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6536,7 +6490,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>24.02239564596892</v>
+        <v>14.47194110248902</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6545,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>23.81495462824407</v>
+        <v>14.84380511921549</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6554,7 +6508,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>24.13001946064014</v>
+        <v>14.88046104326809</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6563,7 +6517,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>23.66485245768786</v>
+        <v>14.78873313316917</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6572,7 +6526,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>23.85810266556116</v>
+        <v>14.75306986524021</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6581,7 +6535,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>23.45844155731366</v>
+        <v>15.03906304638948</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6590,7 +6544,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>22.04619857775867</v>
+        <v>15.03589394285214</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6599,7 +6553,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>22.42639345056045</v>
+        <v>14.2566677604178</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6608,7 +6562,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>23.14114700813122</v>
+        <v>14.68068444121661</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6617,7 +6571,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>22.60380140800151</v>
+        <v>14.92932262610648</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6626,7 +6580,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>22.10140960241887</v>
+        <v>14.0390395470443</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6635,7 +6589,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>22.47127974044796</v>
+        <v>13.78456792085032</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6644,7 +6598,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>21.47551073933446</v>
+        <v>13.30118954573796</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6653,7 +6607,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>22.00041574349871</v>
+        <v>13.29922872609865</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6662,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>21.75911545007255</v>
+        <v>13.23650891089786</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6671,7 +6625,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>22.01937496965173</v>
+        <v>13.40187464932467</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6680,7 +6634,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>21.78593571934718</v>
+        <v>12.91377867251356</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6689,7 +6643,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>21.72729576918348</v>
+        <v>13.03812690517412</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6698,7 +6652,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>22.56933217358601</v>
+        <v>13.62566394006791</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6707,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>22.46684639605364</v>
+        <v>13.46454341923394</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6716,7 +6670,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>22.18249465098912</v>
+        <v>12.99746960733543</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6725,7 +6679,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>22.3072414771074</v>
+        <v>13.13671568271538</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6734,7 +6688,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>22.66084528072162</v>
+        <v>13.6213472098505</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6743,7 +6697,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>22.13552390655519</v>
+        <v>13.87170176414115</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6752,7 +6706,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>23.17154697439799</v>
+        <v>14.03636659371233</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6761,7 +6715,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>23.25282750585352</v>
+        <v>13.91211610081996</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6770,7 +6724,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>22.35500052883616</v>
+        <v>14.0004056560924</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6779,7 +6733,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>23.79751500418421</v>
+        <v>13.79462954420385</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6788,7 +6742,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>23.05915239723156</v>
+        <v>13.78539523531385</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6797,7 +6751,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>23.13264169596248</v>
+        <v>13.21116121460444</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6806,7 +6760,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>23.84030722795893</v>
+        <v>13.92415497524285</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6815,7 +6769,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>24.00179841214459</v>
+        <v>13.89167266387736</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6824,7 +6778,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>23.69955732758912</v>
+        <v>13.11037057266609</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6833,7 +6787,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>25.02561797999002</v>
+        <v>12.40830894045781</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6842,7 +6796,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>24.03614293576251</v>
+        <v>13.61521438569419</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6851,7 +6805,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>24.85877741025154</v>
+        <v>13.72103454070111</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6860,7 +6814,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>25.29268798433516</v>
+        <v>14.04316037872923</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6869,7 +6823,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>24.45463808133135</v>
+        <v>13.6875734138174</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6878,7 +6832,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>24.68248557710646</v>
+        <v>14.29725594519741</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6887,7 +6841,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>25.30539629723517</v>
+        <v>14.2650239831565</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6896,7 +6850,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>23.69162770062411</v>
+        <v>14.64520244975706</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6905,7 +6859,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>24.25422144434155</v>
+        <v>15.07717187790132</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6914,7 +6868,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>23.96768787627166</v>
+        <v>15.66954483338384</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6923,7 +6877,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>23.66098709770226</v>
+        <v>15.99446280391795</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6932,7 +6886,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>24.63851550421336</v>
+        <v>15.69210931979488</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6941,7 +6895,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>25.18662549874303</v>
+        <v>15.89755784567881</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6950,7 +6904,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>25.33022469179402</v>
+        <v>16.23358452952601</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6959,7 +6913,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>25.81451116398348</v>
+        <v>16.54582494602973</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6968,7 +6922,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>25.94156804843314</v>
+        <v>17.2786451788464</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6977,7 +6931,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>25.19758590781939</v>
+        <v>16.91485817338326</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6986,7 +6940,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>25.21949455530272</v>
+        <v>17.18871048248671</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6995,7 +6949,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>26.50343006019385</v>
+        <v>16.77750845850479</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7004,7 +6958,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>25.47418826055084</v>
+        <v>17.14303429201661</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7013,7 +6967,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>25.29214601783334</v>
+        <v>17.50830765851657</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7022,7 +6976,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>25.89397651701159</v>
+        <v>17.92177426977041</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7031,7 +6985,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>25.6939644342281</v>
+        <v>18.06279137618321</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7040,7 +6994,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>25.5275473526467</v>
+        <v>17.70222824611944</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7049,7 +7003,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>25.76853672706497</v>
+        <v>18.05790548163684</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7058,7 +7012,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>25.25995277126452</v>
+        <v>18.24966218372656</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7067,7 +7021,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>25.71777689079427</v>
+        <v>17.30094010152924</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7076,7 +7030,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>25.58907206998983</v>
+        <v>17.8281160462535</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7085,7 +7039,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>25.92450137829445</v>
+        <v>16.97584839757248</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7094,7 +7048,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>25.80641447521131</v>
+        <v>17.00207106804839</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7103,7 +7057,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>25.85577777336511</v>
+        <v>18.11545915636319</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7112,7 +7066,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>26.14624908280088</v>
+        <v>18.23744620886828</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7121,7 +7075,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>26.02572051754837</v>
+        <v>17.51621516722325</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7130,7 +7084,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>26.3718879515562</v>
+        <v>18.57679588357843</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7139,7 +7093,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>25.68641681098028</v>
+        <v>18.96146708084532</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7148,7 +7102,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>25.53002181249432</v>
+        <v>19.76570502495196</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7157,7 +7111,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>26.01349065943999</v>
+        <v>17.28501525790976</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7166,7 +7120,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>25.27873226732461</v>
+        <v>16.4833831556742</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7175,7 +7129,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>25.37286181702767</v>
+        <v>16.39920499943103</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7184,7 +7138,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>24.99749564581614</v>
+        <v>16.15227756092585</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7193,7 +7147,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>25.94184543925504</v>
+        <v>17.55876525707919</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7202,7 +7156,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>26.38199899029838</v>
+        <v>18.74323984256883</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7211,7 +7165,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>26.09097322357425</v>
+        <v>18.75562401754413</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7220,7 +7174,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>25.71852242279333</v>
+        <v>17.67590913038021</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7229,7 +7183,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>26.01579364045127</v>
+        <v>18.79752014011466</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7238,7 +7192,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>25.37195230400176</v>
+        <v>17.23101616027753</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7247,7 +7201,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>25.60061891692829</v>
+        <v>16.94521987520548</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7256,7 +7210,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>26.00557737663872</v>
+        <v>16.68297051319021</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7265,7 +7219,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>23.95415773725355</v>
+        <v>16.0211142679636</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7274,7 +7228,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>24.5533515851495</v>
+        <v>15.72027029371923</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7283,7 +7237,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>24.89588942562924</v>
+        <v>16.1289192447192</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7292,7 +7246,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>24.14255217869988</v>
+        <v>15.77448377660816</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7301,7 +7255,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>23.6501616439335</v>
+        <v>16.52040548345851</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7310,7 +7264,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>23.99225589082142</v>
+        <v>16.22986291126383</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7319,7 +7273,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>23.60968619422905</v>
+        <v>16.59627457093102</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7328,7 +7282,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>23.76461537508792</v>
+        <v>17.23206653562588</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7337,7 +7291,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>24.07623631901319</v>
+        <v>16.82889893382135</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7346,7 +7300,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>23.23724701226823</v>
+        <v>16.7685663330843</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7355,7 +7309,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>23.18048805840514</v>
+        <v>16.65385917078824</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7364,7 +7318,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>22.97489361284327</v>
+        <v>17.34949370736115</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7373,7 +7327,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>22.93401625212717</v>
+        <v>15.89497361589614</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7382,7 +7336,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>23.135780459182</v>
+        <v>15.8460684065713</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7391,7 +7345,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>23.37839187876698</v>
+        <v>17.51669637536032</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7400,7 +7354,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>23.57569698622296</v>
+        <v>16.34113020991253</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7409,7 +7363,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>23.66664250327468</v>
+        <v>16.12698083239491</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7418,7 +7372,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>23.35945356765665</v>
+        <v>16.89700814675029</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7427,7 +7381,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>23.73697736409309</v>
+        <v>17.11578309135449</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7436,7 +7390,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>23.51616891042022</v>
+        <v>16.83317071400009</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7445,7 +7399,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>23.58250785653949</v>
+        <v>16.72244867525498</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7454,7 +7408,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>24.19066631269844</v>
+        <v>17.5578004724673</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7463,7 +7417,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>23.88327166472799</v>
+        <v>16.34282459822304</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7472,7 +7426,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>23.93692403092817</v>
+        <v>15.71060177587574</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7481,7 +7435,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>23.74034284682942</v>
+        <v>15.54866633580701</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7490,7 +7444,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>24.24805131283432</v>
+        <v>15.27449455227895</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7499,7 +7453,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>23.91809808640226</v>
+        <v>15.70572141613655</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7508,7 +7462,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>23.89732696933229</v>
+        <v>16.6474350563777</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7517,7 +7471,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>24.28969166789042</v>
+        <v>16.69908617997989</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7526,7 +7480,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>23.98263966029021</v>
+        <v>16.18046294907788</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7535,7 +7489,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>24.232936214097</v>
+        <v>16.0991457090092</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7544,7 +7498,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>24.77736426073915</v>
+        <v>16.40978039866426</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7553,7 +7507,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>24.36071465876284</v>
+        <v>16.6788233569482</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7562,7 +7516,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>24.58918034575423</v>
+        <v>16.81922499806371</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7571,7 +7525,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>24.60388429572498</v>
+        <v>16.62797859153282</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7580,7 +7534,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>24.50323229606618</v>
+        <v>17.05323168850821</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7589,7 +7543,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>25.06447469043249</v>
+        <v>16.67645135324684</v>
       </c>
     </row>
     <row r="145">
@@ -7597,7 +7551,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>25.35578754874172</v>
+        <v>16.77137829170323</v>
       </c>
     </row>
     <row r="146">
@@ -7644,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-36.93843776786827</v>
+        <v>-26.94758233981109</v>
       </c>
     </row>
     <row r="3">
@@ -7652,7 +7606,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-36.89302708603306</v>
+        <v>-27.30509239748032</v>
       </c>
     </row>
     <row r="4">
@@ -7660,7 +7614,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-37.11503098198359</v>
+        <v>-27.31067013841644</v>
       </c>
     </row>
     <row r="5">
@@ -7668,7 +7622,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-37.11354438465704</v>
+        <v>-27.49545891294869</v>
       </c>
     </row>
     <row r="6">
@@ -7676,7 +7630,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-37.0654070324086</v>
+        <v>-27.64547042678409</v>
       </c>
     </row>
     <row r="7">
@@ -7684,7 +7638,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-37.02063683409661</v>
+        <v>-27.8999126598509</v>
       </c>
     </row>
     <row r="8">
@@ -7692,7 +7646,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-37.30871597407844</v>
+        <v>-27.88264892884128</v>
       </c>
     </row>
     <row r="9">
@@ -7700,7 +7654,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-37.05511660528414</v>
+        <v>-27.97469869366589</v>
       </c>
     </row>
     <row r="10">
@@ -7708,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-36.92739054822879</v>
+        <v>-27.25509105541887</v>
       </c>
     </row>
     <row r="11">
@@ -7716,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-36.94854434169026</v>
+        <v>-27.38058908902154</v>
       </c>
     </row>
     <row r="12">
@@ -7724,7 +7678,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-37.11851757095106</v>
+        <v>-27.77500002274974</v>
       </c>
     </row>
     <row r="13">
@@ -7732,7 +7686,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-37.03664389975576</v>
+        <v>-27.99373147585917</v>
       </c>
     </row>
     <row r="14">
@@ -7740,7 +7694,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-37.05400036511798</v>
+        <v>-28.17938853573733</v>
       </c>
     </row>
     <row r="15">
@@ -7748,7 +7702,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-37.18795409712508</v>
+        <v>-28.36091223334331</v>
       </c>
     </row>
     <row r="16">
@@ -7756,7 +7710,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-36.92934558793408</v>
+        <v>-29.75414960166019</v>
       </c>
     </row>
     <row r="17">
@@ -7764,7 +7718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-36.98669596699299</v>
+        <v>-30.36668895174801</v>
       </c>
     </row>
     <row r="18">
@@ -7772,7 +7726,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-36.86400965582649</v>
+        <v>-30.94080154619749</v>
       </c>
     </row>
     <row r="19">
@@ -7780,7 +7734,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-36.89800822070432</v>
+        <v>-29.36231360214056</v>
       </c>
     </row>
     <row r="20">
@@ -7788,7 +7742,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-36.97519862320222</v>
+        <v>-28.11710986495179</v>
       </c>
     </row>
     <row r="21">
@@ -7796,7 +7750,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-37.0623679109108</v>
+        <v>-28.06676636444422</v>
       </c>
     </row>
     <row r="22">
@@ -7804,7 +7758,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-37.00437034108231</v>
+        <v>-28.47851003753556</v>
       </c>
     </row>
     <row r="23">
@@ -7812,7 +7766,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-37.06899287163651</v>
+        <v>-28.55467092174741</v>
       </c>
     </row>
     <row r="24">
@@ -7820,7 +7774,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-36.99784884462328</v>
+        <v>-29.05083618170281</v>
       </c>
     </row>
     <row r="25">
@@ -7828,7 +7782,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-37.21334107752176</v>
+        <v>-29.89222909228648</v>
       </c>
     </row>
     <row r="26">
@@ -7836,7 +7790,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-37.18901147737694</v>
+        <v>-29.32130884530385</v>
       </c>
     </row>
     <row r="27">
@@ -7844,7 +7798,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-37.47289238611129</v>
+        <v>-29.97230215397556</v>
       </c>
     </row>
     <row r="28">
@@ -7852,7 +7806,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-37.26008409078116</v>
+        <v>-29.89418078142608</v>
       </c>
     </row>
     <row r="29">
@@ -7860,7 +7814,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-37.46425822871864</v>
+        <v>-30.06658767579866</v>
       </c>
     </row>
     <row r="30">
@@ -7868,7 +7822,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-37.85577121634306</v>
+        <v>-30.27276079713149</v>
       </c>
     </row>
     <row r="31">
@@ -7876,7 +7830,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-37.85039049837739</v>
+        <v>-29.370784371055</v>
       </c>
     </row>
     <row r="32">
@@ -7884,7 +7838,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-38.31109013358284</v>
+        <v>-29.82476721782463</v>
       </c>
     </row>
     <row r="33">
@@ -7892,7 +7846,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-39.02971178375643</v>
+        <v>-30.28524095505806</v>
       </c>
     </row>
     <row r="34">
@@ -7900,7 +7854,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-38.9832732472461</v>
+        <v>-30.08845003905477</v>
       </c>
     </row>
     <row r="35">
@@ -7908,7 +7862,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-38.79558602957833</v>
+        <v>-30.05392771637774</v>
       </c>
     </row>
     <row r="36">
@@ -7916,7 +7870,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-38.87862819504429</v>
+        <v>-29.7152645658602</v>
       </c>
     </row>
     <row r="37">
@@ -7924,7 +7878,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-38.80390945862833</v>
+        <v>-30.15219789318514</v>
       </c>
     </row>
     <row r="38">
@@ -7932,7 +7886,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-38.90578453271323</v>
+        <v>-30.19464885323558</v>
       </c>
     </row>
     <row r="39">
@@ -7940,7 +7894,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-39.23670172415737</v>
+        <v>-30.58679819471629</v>
       </c>
     </row>
     <row r="40">
@@ -7948,7 +7902,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-38.76899401592885</v>
+        <v>-30.59756712910579</v>
       </c>
     </row>
     <row r="41">
@@ -7956,7 +7910,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-38.87612285624241</v>
+        <v>-30.61598891219602</v>
       </c>
     </row>
     <row r="42">
@@ -7964,7 +7918,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-39.50739949343631</v>
+        <v>-30.6546541685468</v>
       </c>
     </row>
     <row r="43">
@@ -7972,7 +7926,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-39.06267841826308</v>
+        <v>-31.69172138789113</v>
       </c>
     </row>
     <row r="44">
@@ -7980,7 +7934,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-39.34470351294105</v>
+        <v>-31.57537244594673</v>
       </c>
     </row>
     <row r="45">
@@ -7988,7 +7942,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-38.83041999129132</v>
+        <v>-30.94925185040626</v>
       </c>
     </row>
     <row r="46">
@@ -7996,7 +7950,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-38.68577999778413</v>
+        <v>-30.54754685550762</v>
       </c>
     </row>
     <row r="47">
@@ -8004,7 +7958,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-38.53263260635725</v>
+        <v>-30.73839500520556</v>
       </c>
     </row>
     <row r="48">
@@ -8012,7 +7966,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-38.65022514862248</v>
+        <v>-30.94237606317462</v>
       </c>
     </row>
     <row r="49">
@@ -8020,7 +7974,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-38.39465319200107</v>
+        <v>-31.01860531177699</v>
       </c>
     </row>
     <row r="50">
@@ -8028,7 +7982,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-38.41375797972205</v>
+        <v>-31.05664581235922</v>
       </c>
     </row>
     <row r="51">
@@ -8036,7 +7990,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-38.69167701004096</v>
+        <v>-30.74751033815554</v>
       </c>
     </row>
     <row r="52">
@@ -8044,7 +7998,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-38.64543347020671</v>
+        <v>-30.61866539542913</v>
       </c>
     </row>
     <row r="53">
@@ -8052,7 +8006,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-38.6105982612535</v>
+        <v>-29.77786287155261</v>
       </c>
     </row>
     <row r="54">
@@ -8060,7 +8014,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-38.31494832196407</v>
+        <v>-29.91262022850266</v>
       </c>
     </row>
     <row r="55">
@@ -8068,7 +8022,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-38.31771450234161</v>
+        <v>-30.27461422041592</v>
       </c>
     </row>
     <row r="56">
@@ -8076,7 +8030,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-38.31805530578303</v>
+        <v>-30.28248099794953</v>
       </c>
     </row>
     <row r="57">
@@ -8084,7 +8038,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-38.13952722046104</v>
+        <v>-30.40746315463652</v>
       </c>
     </row>
     <row r="58">
@@ -8092,7 +8046,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-38.11542559589598</v>
+        <v>-31.15246343580888</v>
       </c>
     </row>
     <row r="59">
@@ -8100,7 +8054,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-37.76009550115943</v>
+        <v>-32.03610037854394</v>
       </c>
     </row>
     <row r="60">
@@ -8108,7 +8062,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-37.45179051231892</v>
+        <v>-31.02030602752437</v>
       </c>
     </row>
     <row r="61">
@@ -8116,7 +8070,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-37.43401454939643</v>
+        <v>-30.27725810251767</v>
       </c>
     </row>
     <row r="62">
@@ -8124,7 +8078,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-37.39399111543535</v>
+        <v>-30.24019608761495</v>
       </c>
     </row>
     <row r="63">
@@ -8132,7 +8086,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-37.38364612990403</v>
+        <v>-29.89168773724881</v>
       </c>
     </row>
     <row r="64">
@@ -8140,7 +8094,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-37.28442853442234</v>
+        <v>-29.74722088745173</v>
       </c>
     </row>
     <row r="65">
@@ -8148,7 +8102,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-37.28997620470739</v>
+        <v>-29.76684211987585</v>
       </c>
     </row>
     <row r="66">
@@ -8156,7 +8110,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-37.06747609280808</v>
+        <v>-29.58448599354105</v>
       </c>
     </row>
     <row r="67">
@@ -8164,7 +8118,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-37.33679989258853</v>
+        <v>-29.48993145058434</v>
       </c>
     </row>
     <row r="68">
@@ -8172,7 +8126,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-37.3811779036135</v>
+        <v>-29.67755400717344</v>
       </c>
     </row>
     <row r="69">
@@ -8180,7 +8134,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-37.36866119930118</v>
+        <v>-28.64120577322053</v>
       </c>
     </row>
     <row r="70">
@@ -8188,7 +8142,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-37.00441614555938</v>
+        <v>-28.90542974605896</v>
       </c>
     </row>
     <row r="71">
@@ -8196,7 +8150,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-37.13080417862176</v>
+        <v>-28.85446532618122</v>
       </c>
     </row>
     <row r="72">
@@ -8204,7 +8158,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-36.65087780456806</v>
+        <v>-28.36018090971417</v>
       </c>
     </row>
     <row r="73">
@@ -8212,7 +8166,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-36.57525821939208</v>
+        <v>-28.47795351717814</v>
       </c>
     </row>
     <row r="74">
@@ -8220,7 +8174,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-36.62482144458268</v>
+        <v>-28.72946767322637</v>
       </c>
     </row>
     <row r="75">
@@ -8228,7 +8182,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-36.67682143030378</v>
+        <v>-27.99430015546402</v>
       </c>
     </row>
     <row r="76">
@@ -8236,7 +8190,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-36.56885560946002</v>
+        <v>-27.84515095940059</v>
       </c>
     </row>
     <row r="77">
@@ -8244,7 +8198,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-36.56932529774559</v>
+        <v>-28.07458320427434</v>
       </c>
     </row>
     <row r="78">
@@ -8252,7 +8206,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-36.45100915979565</v>
+        <v>-27.93860331842674</v>
       </c>
     </row>
     <row r="79">
@@ -8260,7 +8214,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-36.49043418918308</v>
+        <v>-27.83931731100721</v>
       </c>
     </row>
     <row r="80">
@@ -8268,7 +8222,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-36.54371644145898</v>
+        <v>-27.51418026174798</v>
       </c>
     </row>
     <row r="81">
@@ -8276,7 +8230,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-36.41982369441963</v>
+        <v>-26.98126335254653</v>
       </c>
     </row>
     <row r="82">
@@ -8284,7 +8238,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-36.45089358989824</v>
+        <v>-27.83683612869446</v>
       </c>
     </row>
     <row r="83">
@@ -8292,7 +8246,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-36.40316313220824</v>
+        <v>-27.61181404051683</v>
       </c>
     </row>
     <row r="84">
@@ -8300,7 +8254,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-36.41406125874749</v>
+        <v>-27.15946926452473</v>
       </c>
     </row>
     <row r="85">
@@ -8308,7 +8262,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-36.40823857279808</v>
+        <v>-26.76684769989106</v>
       </c>
     </row>
     <row r="86">
@@ -8316,7 +8270,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-36.42080672223843</v>
+        <v>-26.96720132446263</v>
       </c>
     </row>
     <row r="87">
@@ -8324,7 +8278,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-36.29480926204712</v>
+        <v>-26.54537503794092</v>
       </c>
     </row>
     <row r="88">
@@ -8332,7 +8286,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-36.37360289897159</v>
+        <v>-26.41587675693858</v>
       </c>
     </row>
     <row r="89">
@@ -8340,7 +8294,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-36.32307134259937</v>
+        <v>-26.40474733693664</v>
       </c>
     </row>
     <row r="90">
@@ -8348,7 +8302,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-36.28662441955061</v>
+        <v>-26.07499794041795</v>
       </c>
     </row>
     <row r="91">
@@ -8356,7 +8310,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-36.2890861997875</v>
+        <v>-26.06248295512437</v>
       </c>
     </row>
     <row r="92">
@@ -8364,7 +8318,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-36.29515791454239</v>
+        <v>-25.99827375485602</v>
       </c>
     </row>
     <row r="93">
@@ -8372,7 +8326,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-36.29861362892189</v>
+        <v>-25.92253646824114</v>
       </c>
     </row>
     <row r="94">
@@ -8380,7 +8334,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-36.40760002608003</v>
+        <v>-25.81887278584676</v>
       </c>
     </row>
     <row r="95">
@@ -8388,7 +8342,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-36.29104337580027</v>
+        <v>-25.98851665011557</v>
       </c>
     </row>
     <row r="96">
@@ -8396,7 +8350,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-36.27900596004655</v>
+        <v>-27.45536019960843</v>
       </c>
     </row>
     <row r="97">
@@ -8404,7 +8358,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-36.39728058604514</v>
+        <v>-27.46382175723274</v>
       </c>
     </row>
     <row r="98">
@@ -8412,7 +8366,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-36.29649721641783</v>
+        <v>-26.89258939011606</v>
       </c>
     </row>
     <row r="99">
@@ -8420,7 +8374,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-36.26042129603902</v>
+        <v>-26.52566406811587</v>
       </c>
     </row>
     <row r="100">
@@ -8428,7 +8382,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-36.33981403817724</v>
+        <v>-25.96748683213754</v>
       </c>
     </row>
     <row r="101">
@@ -8436,7 +8390,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-36.26784798049257</v>
+        <v>-25.92597675093343</v>
       </c>
     </row>
     <row r="102">
@@ -8444,7 +8398,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-36.27710842119843</v>
+        <v>-25.9540858415565</v>
       </c>
     </row>
     <row r="103">
@@ -8452,7 +8406,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-36.28727318574615</v>
+        <v>-25.88034852451928</v>
       </c>
     </row>
     <row r="104">
@@ -8460,7 +8414,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-36.30476066360114</v>
+        <v>-25.84607637620162</v>
       </c>
     </row>
     <row r="105">
@@ -8468,7 +8422,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-36.39628823539422</v>
+        <v>-27.26716451104737</v>
       </c>
     </row>
     <row r="106">
@@ -8476,7 +8430,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-36.37785947079545</v>
+        <v>-27.33121378125238</v>
       </c>
     </row>
     <row r="107">
@@ -8484,7 +8438,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-36.75531647927161</v>
+        <v>-27.48843529512571</v>
       </c>
     </row>
     <row r="108">
@@ -8492,7 +8446,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-37.50481552038745</v>
+        <v>-27.42135670788436</v>
       </c>
     </row>
     <row r="109">
@@ -8500,7 +8454,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-37.41164986350446</v>
+        <v>-27.43448884417169</v>
       </c>
     </row>
     <row r="110">
@@ -8508,7 +8462,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-37.26237794209701</v>
+        <v>-27.53090755760724</v>
       </c>
     </row>
     <row r="111">
@@ -8516,7 +8470,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-37.51379273503169</v>
+        <v>-27.53190335332215</v>
       </c>
     </row>
     <row r="112">
@@ -8524,7 +8478,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-37.29151315414716</v>
+        <v>-27.29001515718961</v>
       </c>
     </row>
     <row r="113">
@@ -8532,7 +8486,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-37.26016615434681</v>
+        <v>-27.0533639732262</v>
       </c>
     </row>
     <row r="114">
@@ -8540,7 +8494,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-37.16977397756687</v>
+        <v>-27.18778536353933</v>
       </c>
     </row>
     <row r="115">
@@ -8548,7 +8502,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-37.44461119100456</v>
+        <v>-26.7987973665909</v>
       </c>
     </row>
     <row r="116">
@@ -8556,7 +8510,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-37.53312365067941</v>
+        <v>-26.95280508157046</v>
       </c>
     </row>
     <row r="117">
@@ -8564,7 +8518,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-38.23737864050998</v>
+        <v>-26.78843233413543</v>
       </c>
     </row>
     <row r="118">
@@ -8572,7 +8526,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-37.80958854410257</v>
+        <v>-26.99250236828966</v>
       </c>
     </row>
     <row r="119">
@@ -8580,7 +8534,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-37.7668812592574</v>
+        <v>-26.80194811015353</v>
       </c>
     </row>
     <row r="120">
@@ -8588,7 +8542,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-37.52681671506306</v>
+        <v>-27.57610024211144</v>
       </c>
     </row>
     <row r="121">
@@ -8596,7 +8550,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-37.45733542537294</v>
+        <v>-27.34097504276678</v>
       </c>
     </row>
     <row r="122">
@@ -8604,7 +8558,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-37.62919124172739</v>
+        <v>-27.35652229601757</v>
       </c>
     </row>
     <row r="123">
@@ -8612,7 +8566,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-37.39541567481815</v>
+        <v>-27.28213160697446</v>
       </c>
     </row>
     <row r="124">
@@ -8620,7 +8574,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-37.48263243276782</v>
+        <v>-27.22712389242965</v>
       </c>
     </row>
     <row r="125">
@@ -8628,7 +8582,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-37.37358639786495</v>
+        <v>-27.22074609256873</v>
       </c>
     </row>
     <row r="126">
@@ -8636,7 +8590,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-37.46028709382505</v>
+        <v>-27.77630597995872</v>
       </c>
     </row>
     <row r="127">
@@ -8644,7 +8598,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-37.25033859118459</v>
+        <v>-27.02351874130058</v>
       </c>
     </row>
     <row r="128">
@@ -8652,7 +8606,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-37.41042041678877</v>
+        <v>-26.94614435234043</v>
       </c>
     </row>
     <row r="129">
@@ -8660,7 +8614,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-37.34367786604289</v>
+        <v>-26.96218055639767</v>
       </c>
     </row>
     <row r="130">
@@ -8668,7 +8622,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-37.29476796390085</v>
+        <v>-27.91230242310058</v>
       </c>
     </row>
     <row r="131">
@@ -8676,7 +8630,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-37.29654295615112</v>
+        <v>-27.37044600100374</v>
       </c>
     </row>
     <row r="132">
@@ -8684,7 +8638,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-37.09150263173115</v>
+        <v>-27.91761076173945</v>
       </c>
     </row>
     <row r="133">
@@ -8692,7 +8646,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-37.27378927836585</v>
+        <v>-27.83836517035353</v>
       </c>
     </row>
     <row r="134">
@@ -8700,7 +8654,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-37.28288058073735</v>
+        <v>-27.77028747901066</v>
       </c>
     </row>
     <row r="135">
@@ -8708,7 +8662,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-36.945803565417</v>
+        <v>-27.74594187973744</v>
       </c>
     </row>
     <row r="136">
@@ -8716,7 +8670,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-37.1312945616776</v>
+        <v>-27.41959869438136</v>
       </c>
     </row>
     <row r="137">
@@ -8724,7 +8678,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-37.02905912049637</v>
+        <v>-27.54848781055107</v>
       </c>
     </row>
     <row r="138">
@@ -8732,7 +8686,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-37.07441357408998</v>
+        <v>-27.10875611529065</v>
       </c>
     </row>
     <row r="139">
@@ -8740,7 +8694,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-37.01673825976076</v>
+        <v>-27.56088391304883</v>
       </c>
     </row>
     <row r="140">
@@ -8748,7 +8702,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-37.02195165670576</v>
+        <v>-27.28133143719963</v>
       </c>
     </row>
     <row r="141">
@@ -8756,7 +8710,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-36.99396576306636</v>
+        <v>-27.19529333577396</v>
       </c>
     </row>
     <row r="142">
@@ -8764,7 +8718,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-36.94833776373353</v>
+        <v>-27.20474951723631</v>
       </c>
     </row>
     <row r="143">
@@ -8772,7 +8726,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-36.95629628196306</v>
+        <v>-27.28641028027036</v>
       </c>
     </row>
     <row r="144">
@@ -8780,7 +8734,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-37.07873633464543</v>
+        <v>-27.65642996695717</v>
       </c>
     </row>
     <row r="145">
@@ -8788,7 +8742,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-36.99261974325831</v>
+        <v>-27.18210845039714</v>
       </c>
     </row>
     <row r="146">
